--- a/data/nzd0287/nzd0287.xlsx
+++ b/data/nzd0287/nzd0287.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W339"/>
+  <dimension ref="A1:W340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24973,6 +24973,81 @@
         </is>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:54:07+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>350.1133333333333</v>
+      </c>
+      <c r="C340" t="n">
+        <v>358.32</v>
+      </c>
+      <c r="D340" t="n">
+        <v>362.9233333333333</v>
+      </c>
+      <c r="E340" t="n">
+        <v>351.8033333333333</v>
+      </c>
+      <c r="F340" t="n">
+        <v>359.4414285714286</v>
+      </c>
+      <c r="G340" t="n">
+        <v>362.6114285714286</v>
+      </c>
+      <c r="H340" t="n">
+        <v>367.2314285714286</v>
+      </c>
+      <c r="I340" t="n">
+        <v>375.7914285714286</v>
+      </c>
+      <c r="J340" t="n">
+        <v>369.8714285714286</v>
+      </c>
+      <c r="K340" t="n">
+        <v>359.82</v>
+      </c>
+      <c r="L340" t="n">
+        <v>358.6933333333333</v>
+      </c>
+      <c r="M340" t="n">
+        <v>375.31</v>
+      </c>
+      <c r="N340" t="n">
+        <v>378.6833333333333</v>
+      </c>
+      <c r="O340" t="n">
+        <v>379.81</v>
+      </c>
+      <c r="P340" t="n">
+        <v>388.57</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>393.96</v>
+      </c>
+      <c r="R340" t="n">
+        <v>386.08</v>
+      </c>
+      <c r="S340" t="n">
+        <v>381.56</v>
+      </c>
+      <c r="T340" t="n">
+        <v>373.16</v>
+      </c>
+      <c r="U340" t="n">
+        <v>360.6314285714286</v>
+      </c>
+      <c r="V340" t="n">
+        <v>356.7714285714285</v>
+      </c>
+      <c r="W340" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24984,7 +25059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B342"/>
+  <dimension ref="A1:B343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28412,6 +28487,16 @@
       </c>
       <c r="B342" t="n">
         <v>0.71</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
@@ -28580,28 +28665,28 @@
         <v>0.0305</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1212226306600046</v>
+        <v>-0.1247269709562109</v>
       </c>
       <c r="J2" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K2" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007893909887272232</v>
+        <v>0.008408183547551462</v>
       </c>
       <c r="M2" t="n">
-        <v>7.081400968620935</v>
+        <v>7.075679791557476</v>
       </c>
       <c r="N2" t="n">
-        <v>90.31939232580734</v>
+        <v>90.11878412316281</v>
       </c>
       <c r="O2" t="n">
-        <v>9.50365152590347</v>
+        <v>9.493091389171539</v>
       </c>
       <c r="P2" t="n">
-        <v>358.2841775771618</v>
+        <v>358.3190538529824</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -28657,28 +28742,28 @@
         <v>0.03</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1126836292552497</v>
+        <v>-0.1074196744106259</v>
       </c>
       <c r="J3" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K3" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005266588062702415</v>
+        <v>0.00481677432024763</v>
       </c>
       <c r="M3" t="n">
-        <v>8.380438670879128</v>
+        <v>8.380117068757684</v>
       </c>
       <c r="N3" t="n">
-        <v>116.8061038711037</v>
+        <v>116.6290351884165</v>
       </c>
       <c r="O3" t="n">
-        <v>10.80768725820209</v>
+        <v>10.79949235790352</v>
       </c>
       <c r="P3" t="n">
-        <v>353.4600114319583</v>
+        <v>353.4076605375778</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -28734,28 +28819,28 @@
         <v>0.0306</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08529426415678042</v>
+        <v>0.0891178248008697</v>
       </c>
       <c r="J4" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K4" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003673336441803787</v>
+        <v>0.004034501725292627</v>
       </c>
       <c r="M4" t="n">
-        <v>7.689102429330388</v>
+        <v>7.684384655301162</v>
       </c>
       <c r="N4" t="n">
-        <v>96.77302547923507</v>
+        <v>96.57351864989541</v>
       </c>
       <c r="O4" t="n">
-        <v>9.837328167710737</v>
+        <v>9.827182640507676</v>
       </c>
       <c r="P4" t="n">
-        <v>355.116738198058</v>
+        <v>355.0788209876835</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -28811,28 +28896,28 @@
         <v>0.0306</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07909720302262316</v>
+        <v>0.08186362232661393</v>
       </c>
       <c r="J5" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K5" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003136068275745862</v>
+        <v>0.003381526343722685</v>
       </c>
       <c r="M5" t="n">
-        <v>7.722066284306349</v>
+        <v>7.711955673794416</v>
       </c>
       <c r="N5" t="n">
-        <v>97.95615049201953</v>
+        <v>97.70957194163658</v>
       </c>
       <c r="O5" t="n">
-        <v>9.897279954210628</v>
+        <v>9.884815220409362</v>
       </c>
       <c r="P5" t="n">
-        <v>345.674804749394</v>
+        <v>345.6474371569115</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -28888,28 +28973,28 @@
         <v>0.0356</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1539355709175515</v>
+        <v>0.1619170003810737</v>
       </c>
       <c r="J6" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K6" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0134978209933333</v>
+        <v>0.01494448356836131</v>
       </c>
       <c r="M6" t="n">
-        <v>6.886134730459383</v>
+        <v>6.900085784328486</v>
       </c>
       <c r="N6" t="n">
-        <v>86.14773041842928</v>
+        <v>86.32675651341484</v>
       </c>
       <c r="O6" t="n">
-        <v>9.281580168184147</v>
+        <v>9.291219323286629</v>
       </c>
       <c r="P6" t="n">
-        <v>343.3976959284632</v>
+        <v>343.319322563364</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -28965,28 +29050,28 @@
         <v>0.0358</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1055140052546361</v>
+        <v>0.1082945877069581</v>
       </c>
       <c r="J7" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K7" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006488975717623635</v>
+        <v>0.006878458308029467</v>
       </c>
       <c r="M7" t="n">
-        <v>7.111316730936619</v>
+        <v>7.102522549089187</v>
       </c>
       <c r="N7" t="n">
-        <v>84.08136249221708</v>
+        <v>83.88049770388609</v>
       </c>
       <c r="O7" t="n">
-        <v>9.169589003451414</v>
+        <v>9.158629684832011</v>
       </c>
       <c r="P7" t="n">
-        <v>355.7453636778761</v>
+        <v>355.7178588193001</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -29042,28 +29127,28 @@
         <v>0.036</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.02473716532111625</v>
+        <v>-0.01708304748374768</v>
       </c>
       <c r="J8" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K8" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004261507274401222</v>
+        <v>0.0002036395642364131</v>
       </c>
       <c r="M8" t="n">
-        <v>6.282686464536023</v>
+        <v>6.292831710171638</v>
       </c>
       <c r="N8" t="n">
-        <v>71.0121217558634</v>
+        <v>71.19266339994442</v>
       </c>
       <c r="O8" t="n">
-        <v>8.426869036354095</v>
+        <v>8.437574497445603</v>
       </c>
       <c r="P8" t="n">
-        <v>356.3633446248151</v>
+        <v>356.2879289407032</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -29119,28 +29204,28 @@
         <v>0.0403</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04803460472588193</v>
+        <v>0.05171166551479255</v>
       </c>
       <c r="J9" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K9" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001415690154162652</v>
+        <v>0.001650855421350905</v>
       </c>
       <c r="M9" t="n">
-        <v>6.481646883038186</v>
+        <v>6.480113584490402</v>
       </c>
       <c r="N9" t="n">
-        <v>79.97191736683907</v>
+        <v>79.8182273157737</v>
       </c>
       <c r="O9" t="n">
-        <v>8.942701905287857</v>
+        <v>8.934104729393633</v>
       </c>
       <c r="P9" t="n">
-        <v>369.1368773909857</v>
+        <v>369.1006744288649</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -29196,28 +29281,28 @@
         <v>0.0361</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09244962575361569</v>
+        <v>0.09426430445680663</v>
       </c>
       <c r="J10" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K10" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004460670446407966</v>
+        <v>0.004669964532838522</v>
       </c>
       <c r="M10" t="n">
-        <v>7.26799024748528</v>
+        <v>7.25472135555736</v>
       </c>
       <c r="N10" t="n">
-        <v>94.2257685916619</v>
+        <v>93.96130889551839</v>
       </c>
       <c r="O10" t="n">
-        <v>9.706995858228327</v>
+        <v>9.693364168105848</v>
       </c>
       <c r="P10" t="n">
-        <v>364.8277876596786</v>
+        <v>364.8099122386041</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -29273,28 +29358,28 @@
         <v>0.0255</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05792754425702679</v>
+        <v>0.05987353052336093</v>
       </c>
       <c r="J11" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K11" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001715077047960034</v>
+        <v>0.001845391033453381</v>
       </c>
       <c r="M11" t="n">
-        <v>7.631520830612769</v>
+        <v>7.617336401400416</v>
       </c>
       <c r="N11" t="n">
-        <v>96.59733430968599</v>
+        <v>96.32678992038346</v>
       </c>
       <c r="O11" t="n">
-        <v>9.828394289490323</v>
+        <v>9.814621231631074</v>
       </c>
       <c r="P11" t="n">
-        <v>355.4856766023642</v>
+        <v>355.4665896910466</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -29350,28 +29435,28 @@
         <v>0.0306</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0533635043182371</v>
+        <v>0.05356615717055152</v>
       </c>
       <c r="J12" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K12" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00152939355523185</v>
+        <v>0.001552574594416156</v>
       </c>
       <c r="M12" t="n">
-        <v>7.337833309595936</v>
+        <v>7.31622070344204</v>
       </c>
       <c r="N12" t="n">
-        <v>92.97385981222617</v>
+        <v>92.68893836341246</v>
       </c>
       <c r="O12" t="n">
-        <v>9.64229536014253</v>
+        <v>9.627509457975746</v>
       </c>
       <c r="P12" t="n">
-        <v>357.0403247904255</v>
+        <v>357.0383481428356</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -29427,28 +29512,28 @@
         <v>0.0252</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.08184785321593624</v>
+        <v>-0.07558792064409127</v>
       </c>
       <c r="J13" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K13" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002225765983998262</v>
+        <v>0.00191085636496513</v>
       </c>
       <c r="M13" t="n">
-        <v>9.267996948155892</v>
+        <v>9.262160767593507</v>
       </c>
       <c r="N13" t="n">
-        <v>149.283493219842</v>
+        <v>149.0496523156971</v>
       </c>
       <c r="O13" t="n">
-        <v>12.21816243220895</v>
+        <v>12.20858928442173</v>
       </c>
       <c r="P13" t="n">
-        <v>368.5854823511793</v>
+        <v>368.5243154534468</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -29504,28 +29589,28 @@
         <v>0.031</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03258616634318973</v>
+        <v>0.0405754938084578</v>
       </c>
       <c r="J14" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K14" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0004041348685414059</v>
+        <v>0.0006296453049244866</v>
       </c>
       <c r="M14" t="n">
-        <v>8.255209910973672</v>
+        <v>8.258081063707461</v>
       </c>
       <c r="N14" t="n">
-        <v>129.9383382931912</v>
+        <v>129.9097548035253</v>
       </c>
       <c r="O14" t="n">
-        <v>11.39904988554709</v>
+        <v>11.3977960502689</v>
       </c>
       <c r="P14" t="n">
-        <v>366.7915572659044</v>
+        <v>366.7136867067001</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -29581,28 +29666,28 @@
         <v>0.0206</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.08807753966781333</v>
+        <v>-0.08085035346533252</v>
       </c>
       <c r="J15" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K15" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002747127424332807</v>
+        <v>0.002329682385888487</v>
       </c>
       <c r="M15" t="n">
-        <v>9.417464724452646</v>
+        <v>9.414825786000097</v>
       </c>
       <c r="N15" t="n">
-        <v>138.9074127343598</v>
+        <v>138.7585276646045</v>
       </c>
       <c r="O15" t="n">
-        <v>11.7858988937781</v>
+        <v>11.77958096303109</v>
       </c>
       <c r="P15" t="n">
-        <v>372.2855587186397</v>
+        <v>372.2147004685258</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -29658,28 +29743,28 @@
         <v>0.0227</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.08875552994964504</v>
+        <v>-0.08045160997638648</v>
       </c>
       <c r="J16" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K16" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002252001933165326</v>
+        <v>0.001861526005851211</v>
       </c>
       <c r="M16" t="n">
-        <v>10.61180024658187</v>
+        <v>10.61098794244398</v>
       </c>
       <c r="N16" t="n">
-        <v>174.762336859512</v>
+        <v>174.6047598651438</v>
       </c>
       <c r="O16" t="n">
-        <v>13.2197706810486</v>
+        <v>13.21380943805169</v>
       </c>
       <c r="P16" t="n">
-        <v>379.4562830487744</v>
+        <v>379.3751396924418</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -29735,28 +29820,28 @@
         <v>0.0266</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.08009696460971796</v>
+        <v>-0.06540608773611102</v>
       </c>
       <c r="J17" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K17" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002319922994528101</v>
+        <v>0.001545726372153777</v>
       </c>
       <c r="M17" t="n">
-        <v>9.169235008781174</v>
+        <v>9.209086686159766</v>
       </c>
       <c r="N17" t="n">
-        <v>137.7416797788185</v>
+        <v>138.6074036549294</v>
       </c>
       <c r="O17" t="n">
-        <v>11.73634013561376</v>
+        <v>11.77316455567191</v>
       </c>
       <c r="P17" t="n">
-        <v>376.0480709172322</v>
+        <v>375.9035239851241</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -29812,28 +29897,28 @@
         <v>0.0255</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02767348502975255</v>
+        <v>0.02984032826403228</v>
       </c>
       <c r="J18" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K18" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000312421822013409</v>
+        <v>0.0003660581911615335</v>
       </c>
       <c r="M18" t="n">
-        <v>8.828184219423056</v>
+        <v>8.808357338795373</v>
       </c>
       <c r="N18" t="n">
-        <v>121.7221692955647</v>
+        <v>121.3510825008993</v>
       </c>
       <c r="O18" t="n">
-        <v>11.03277704368056</v>
+        <v>11.01594673647705</v>
       </c>
       <c r="P18" t="n">
-        <v>382.3766014111122</v>
+        <v>382.3552928737186</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -29889,28 +29974,28 @@
         <v>0.0257</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04954913414171092</v>
+        <v>0.05076406596363067</v>
       </c>
       <c r="J19" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K19" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0008719759949219474</v>
+        <v>0.0009224234588243174</v>
       </c>
       <c r="M19" t="n">
-        <v>8.923818184470182</v>
+        <v>8.900007682775655</v>
       </c>
       <c r="N19" t="n">
-        <v>140.2517693075351</v>
+        <v>139.8071882580002</v>
       </c>
       <c r="O19" t="n">
-        <v>11.8427939823141</v>
+        <v>11.82400897572394</v>
       </c>
       <c r="P19" t="n">
-        <v>378.5989206154169</v>
+        <v>378.5870475988639</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -29966,28 +30051,28 @@
         <v>0.0283</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05252515057809103</v>
+        <v>0.05399200802018576</v>
       </c>
       <c r="J20" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K20" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0009202143716253719</v>
+        <v>0.0009797429327087492</v>
       </c>
       <c r="M20" t="n">
-        <v>9.521164653928563</v>
+        <v>9.49693837255813</v>
       </c>
       <c r="N20" t="n">
-        <v>148.5450433264455</v>
+        <v>148.0765341494841</v>
       </c>
       <c r="O20" t="n">
-        <v>12.1879056168993</v>
+        <v>12.16867018821219</v>
       </c>
       <c r="P20" t="n">
-        <v>369.7574192627098</v>
+        <v>369.742909426796</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -30043,28 +30128,28 @@
         <v>0.0413</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1458460310709133</v>
+        <v>0.1457614632084058</v>
       </c>
       <c r="J21" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K21" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L21" t="n">
-        <v>0.009228142635906766</v>
+        <v>0.009290415121956053</v>
       </c>
       <c r="M21" t="n">
-        <v>8.287200981777332</v>
+        <v>8.26049095643582</v>
       </c>
       <c r="N21" t="n">
-        <v>112.8191488727338</v>
+        <v>112.4505033223715</v>
       </c>
       <c r="O21" t="n">
-        <v>10.621635884963</v>
+        <v>10.60426816533661</v>
       </c>
       <c r="P21" t="n">
-        <v>357.0527848644415</v>
+        <v>357.053618731464</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -30120,28 +30205,28 @@
         <v>0.0405</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03828834280574403</v>
+        <v>0.03478160607854716</v>
       </c>
       <c r="J22" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K22" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0006444456030417767</v>
+        <v>0.0005358579396438357</v>
       </c>
       <c r="M22" t="n">
-        <v>8.143301609155426</v>
+        <v>8.132681039328537</v>
       </c>
       <c r="N22" t="n">
-        <v>112.4937359704037</v>
+        <v>112.1896867826076</v>
       </c>
       <c r="O22" t="n">
-        <v>10.60630642450065</v>
+        <v>10.59196331104898</v>
       </c>
       <c r="P22" t="n">
-        <v>360.5391068169398</v>
+        <v>360.5736930055946</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -30178,7 +30263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W339"/>
+  <dimension ref="A1:W340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67989,6 +68074,123 @@
         </is>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:54:07+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>-39.19701034070434,177.92017565431243</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>-39.197657334733606,177.9198394092613</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>-39.19829062005344,177.91946561413988</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>-39.19885630887368,177.91892031555426</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>-39.19948072383273,177.91853006130685</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>-39.20010561830319,177.91821162432865</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>-39.2007896624899,177.91813068552025</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>-39.20148647489232,177.91809854243596</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>-39.202169532534484,177.9179021776137</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>-39.20285381297366,177.9176599966204</t>
+        </is>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>-39.20350273956413,177.9173247306888</t>
+        </is>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>-39.204197305328705,177.917152305959</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>-39.20484448509865,177.91683826461153</t>
+        </is>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>-39.20549319609488,177.91653429423985</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>-39.206170057338554,177.9163222172577</t>
+        </is>
+      </c>
+      <c r="Q340" t="inlineStr">
+        <is>
+          <t>-39.20683773520098,177.91607308721032</t>
+        </is>
+      </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>-39.207467983123045,177.91568370834239</t>
+        </is>
+      </c>
+      <c r="S340" t="inlineStr">
+        <is>
+          <t>-39.20811297450533,177.9153450150046</t>
+        </is>
+      </c>
+      <c r="T340" t="inlineStr">
+        <is>
+          <t>-39.208750217318055,177.91496269867275</t>
+        </is>
+      </c>
+      <c r="U340" t="inlineStr">
+        <is>
+          <t>-39.2093771075317,177.91453471884375</t>
+        </is>
+      </c>
+      <c r="V340" t="inlineStr">
+        <is>
+          <t>-39.21002310157669,177.91419220041217</t>
+        </is>
+      </c>
+      <c r="W340" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0287/nzd0287.xlsx
+++ b/data/nzd0287/nzd0287.xlsx
@@ -28510,7 +28510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28601,35 +28601,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -28688,27 +28693,28 @@
       <c r="P2" t="n">
         <v>358.3190538529824</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (177.91653662497396 -39.19563513085918, 177.92599960606321 -39.19921088345419)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>177.916536624974</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-39.19563513085918</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>177.9259996060632</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-39.19921088345419</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>177.9212681155186</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-39.19742300715669</v>
       </c>
     </row>
@@ -28765,27 +28771,28 @@
       <c r="P3" t="n">
         <v>353.4076605375778</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (177.91611504989038 -39.196249883695344, 177.9255780768995 -39.199825644935416)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>177.9161150498904</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-39.19624988369534</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>177.9255780768995</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-39.19982564493542</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>177.9208465633949</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-39.19803776431538</v>
       </c>
     </row>
@@ -28842,27 +28849,28 @@
       <c r="P4" t="n">
         <v>355.0788209876835</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (177.9157048903141 -39.19684678132761, 177.9251390193796 -39.200468431413)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>177.9157048903141</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-39.19684678132761</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>177.9251390193796</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-39.200468431413</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>177.9204219548469</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-39.1986576063703</v>
       </c>
     </row>
@@ -28919,27 +28927,28 @@
       <c r="P5" t="n">
         <v>345.6474371569115</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (177.91533008696817 -39.19737269053726, 177.9246208711224 -39.20121162395208)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>177.9153300869682</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-39.19737269053726</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>177.9246208711224</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-39.20121162395208</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>177.9199754790453</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-39.19929215724467</v>
       </c>
     </row>
@@ -28996,27 +29005,28 @@
       <c r="P6" t="n">
         <v>343.319322563364</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (177.9147791814181 -39.19809276673418, 177.92427985315504 -39.2016079948778)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>177.9147791814181</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-39.19809276673418</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>177.924279853155</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-39.2016079948778</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>177.9195295172866</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-39.19985038080598</v>
       </c>
     </row>
@@ -29073,27 +29083,28 @@
       <c r="P7" t="n">
         <v>355.7178588193001</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (177.91414406035446 -39.1993228672689, 177.92435848568857 -39.2012881940392)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>177.9141440603545</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-39.1993228672689</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>177.9243584856886</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-39.2012881940392</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>177.9192512730215</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-39.20030553065405</v>
       </c>
     </row>
@@ -29150,27 +29161,28 @@
       <c r="P8" t="n">
         <v>356.2879289407032</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (177.91391331889923 -39.20042336619749, 177.92437127483433 -39.20133139334605)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>177.9139133188992</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-39.20042336619749</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>177.9243712748343</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-39.20133139334605</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>177.9191422968668</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-39.20087737977177</v>
       </c>
     </row>
@@ -29227,27 +29239,28 @@
       <c r="P9" t="n">
         <v>369.1006744288649</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (177.91378161224918 -39.20112021185078, 177.92424258949282 -39.202007470575886)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>177.9137816122492</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-39.20112021185078</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>177.9242425894928</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-39.20200747057589</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>177.919012100871</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-39.20156384121333</v>
       </c>
     </row>
@@ -29304,27 +29317,28 @@
       <c r="P10" t="n">
         <v>364.8099122386041</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (177.91365266707007 -39.201812946078384, 177.9241150575285 -39.202690580706495)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>177.9136526670701</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-39.20181294607838</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>177.9241150575285</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-39.20269058070649</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>177.9188838622993</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-39.20225176339244</v>
       </c>
     </row>
@@ -29381,27 +29395,28 @@
       <c r="P11" t="n">
         <v>355.4665896910466</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (177.91360282770967 -39.20214556911017, 177.92387018211983 -39.20393759247587)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>177.9136028277097</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-39.20214556911017</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>177.9238701821198</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-39.20393759247587</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>177.9187365049148</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-39.20304158079302</v>
       </c>
     </row>
@@ -29458,27 +29473,28 @@
       <c r="P12" t="n">
         <v>357.0383481428356</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (177.91343149410878 -39.20239581526366, 177.92331399092265 -39.20520527276327)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>177.9134314941088</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-39.20239581526366</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>177.9233139909227</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-39.20520527276327</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>177.9183727425157</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-39.20380054401346</v>
       </c>
     </row>
@@ -29535,27 +29551,28 @@
       <c r="P13" t="n">
         <v>368.5243154534468</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (177.9131028293444 -39.20298891367538, 177.92292664606455 -39.205920082595156)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>177.9131028293444</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-39.20298891367538</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>177.9229266460646</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-39.20592008259516</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>177.9180147377045</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-39.20445449813526</v>
       </c>
     </row>
@@ -29612,27 +29629,28 @@
       <c r="P14" t="n">
         <v>366.7136867067001</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (177.91272145458868 -39.20368985589558, 177.92261979407084 -39.20646569387064)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>177.9127214545887</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-39.20368985589558</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>177.9226197940708</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-39.20646569387064</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>177.9176706243298</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-39.20507777488311</v>
       </c>
     </row>
@@ -29689,27 +29707,28 @@
       <c r="P15" t="n">
         <v>372.2147004685258</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (177.91236815079955 -39.20441843648432, 177.92235557144124 -39.2069946248872)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>177.9123681507996</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-39.20441843648432</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>177.9223555714412</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-39.2069946248872</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>177.9173618611204</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-39.20570653068576</v>
       </c>
     </row>
@@ -29766,27 +29785,28 @@
       <c r="P16" t="n">
         <v>379.3751396924418</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (177.91205215653062 -39.205088951505445, 177.92205793004283 -39.207621933785596)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>177.9120521565306</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-39.20508895150545</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>177.9220579300428</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-39.2076219337856</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>177.9170550432867</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-39.20635544264552</v>
       </c>
     </row>
@@ -29843,27 +29863,28 @@
       <c r="P17" t="n">
         <v>375.9035239851241</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (177.91173957862276 -39.20575166291475, 177.92175508565217 -39.208261465088455)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>177.9117395786228</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-39.20575166291475</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>177.9217550856522</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-39.20826146508846</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>177.9167473321374</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-39.2070065640016</v>
       </c>
     </row>
@@ -29920,27 +29941,28 @@
       <c r="P18" t="n">
         <v>382.3552928737186</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (177.911421498817 -39.2064414171612, 177.9214733350089 -39.20886212601605)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>177.911421498817</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-39.2064414171612</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>177.9214733350089</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-39.20886212601605</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>177.9164474169129</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-39.20765177158863</v>
       </c>
     </row>
@@ -29997,27 +30019,28 @@
       <c r="P19" t="n">
         <v>378.5870475988639</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (177.9111218123308 -39.207126110325696, 177.92119967338704 -39.20948076471841)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>177.9111218123308</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-39.2071261103257</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>177.921199673387</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-39.20948076471841</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>177.9161607428589</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-39.20830343752205</v>
       </c>
     </row>
@@ -30074,27 +30097,28 @@
       <c r="P20" t="n">
         <v>369.742909426796</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (177.9108324324628 -39.20778507209285, 177.9209103533549 -39.21013973103272)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>177.9108324324628</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-39.20778507209285</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>177.9209103533549</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-39.21013973103272</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>177.9158713929089</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-39.20896240156279</v>
       </c>
     </row>
@@ -30151,27 +30175,28 @@
       <c r="P21" t="n">
         <v>357.053618731464</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (177.91055068838688 -39.20842489655406, 177.92060943375625 -39.210828686098544)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>177.9105506883869</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-39.20842489655406</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>177.9206094337563</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-39.21082868609854</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>177.9155800610716</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-39.2096267913263</v>
       </c>
     </row>
@@ -30228,27 +30253,28 @@
       <c r="P22" t="n">
         <v>360.5736930055946</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (177.91025845179811 -39.209061858768635, 177.92029762327357 -39.21151468630215)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>177.9102584517981</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-39.20906185876864</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>177.9202976232736</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-39.21151468630215</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>177.9152780375358</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-39.21028827253539</v>
       </c>
     </row>

--- a/data/nzd0287/nzd0287.xlsx
+++ b/data/nzd0287/nzd0287.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W340"/>
+  <dimension ref="A1:W343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25048,6 +25048,231 @@
         </is>
       </c>
     </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:54:08+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>347.54</v>
+      </c>
+      <c r="C341" t="n">
+        <v>347.6</v>
+      </c>
+      <c r="D341" t="n">
+        <v>342.62</v>
+      </c>
+      <c r="E341" t="n">
+        <v>334.95</v>
+      </c>
+      <c r="F341" t="n">
+        <v>332.6</v>
+      </c>
+      <c r="G341" t="n">
+        <v>343.83</v>
+      </c>
+      <c r="H341" t="n">
+        <v>350.65</v>
+      </c>
+      <c r="I341" t="n">
+        <v>354.8</v>
+      </c>
+      <c r="J341" t="n">
+        <v>350.62</v>
+      </c>
+      <c r="K341" t="n">
+        <v>351.5</v>
+      </c>
+      <c r="L341" t="n">
+        <v>337.71</v>
+      </c>
+      <c r="M341" t="n">
+        <v>351.57</v>
+      </c>
+      <c r="N341" t="n">
+        <v>344.05</v>
+      </c>
+      <c r="O341" t="n">
+        <v>358.65</v>
+      </c>
+      <c r="P341" t="n">
+        <v>364.69</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>353.18</v>
+      </c>
+      <c r="R341" t="n">
+        <v>363.57</v>
+      </c>
+      <c r="S341" t="n">
+        <v>358.39</v>
+      </c>
+      <c r="T341" t="n">
+        <v>354.13</v>
+      </c>
+      <c r="U341" t="n">
+        <v>344.43</v>
+      </c>
+      <c r="V341" t="n">
+        <v>348.82</v>
+      </c>
+      <c r="W341" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>344.8566666666667</v>
+      </c>
+      <c r="C342" t="n">
+        <v>345.43</v>
+      </c>
+      <c r="D342" t="n">
+        <v>356.3666666666667</v>
+      </c>
+      <c r="E342" t="n">
+        <v>351.0466666666667</v>
+      </c>
+      <c r="F342" t="n">
+        <v>336.1857142857143</v>
+      </c>
+      <c r="G342" t="n">
+        <v>365.9457142857143</v>
+      </c>
+      <c r="H342" t="n">
+        <v>347.3957142857143</v>
+      </c>
+      <c r="I342" t="n">
+        <v>362.5757142857143</v>
+      </c>
+      <c r="J342" t="n">
+        <v>362.2257142857143</v>
+      </c>
+      <c r="K342" t="n">
+        <v>351.11</v>
+      </c>
+      <c r="L342" t="n">
+        <v>357.4466666666667</v>
+      </c>
+      <c r="M342" t="n">
+        <v>363.3</v>
+      </c>
+      <c r="N342" t="n">
+        <v>365.5566666666667</v>
+      </c>
+      <c r="O342" t="n">
+        <v>367.75</v>
+      </c>
+      <c r="P342" t="n">
+        <v>376.28</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>367.81</v>
+      </c>
+      <c r="R342" t="n">
+        <v>383.04</v>
+      </c>
+      <c r="S342" t="n">
+        <v>379.44</v>
+      </c>
+      <c r="T342" t="n">
+        <v>371.02</v>
+      </c>
+      <c r="U342" t="n">
+        <v>360.6557142857143</v>
+      </c>
+      <c r="V342" t="n">
+        <v>358.6657142857143</v>
+      </c>
+      <c r="W342" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:53:55+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>356.34</v>
+      </c>
+      <c r="C343" t="n">
+        <v>345.62</v>
+      </c>
+      <c r="D343" t="n">
+        <v>356.04</v>
+      </c>
+      <c r="E343" t="n">
+        <v>349.79</v>
+      </c>
+      <c r="F343" t="n">
+        <v>353.2771428571428</v>
+      </c>
+      <c r="G343" t="n">
+        <v>358.4571428571429</v>
+      </c>
+      <c r="H343" t="n">
+        <v>359.8571428571428</v>
+      </c>
+      <c r="I343" t="n">
+        <v>374.9971428571428</v>
+      </c>
+      <c r="J343" t="n">
+        <v>361.2471428571428</v>
+      </c>
+      <c r="K343" t="n">
+        <v>357.81</v>
+      </c>
+      <c r="L343" t="n">
+        <v>358.05</v>
+      </c>
+      <c r="M343" t="n">
+        <v>367.07</v>
+      </c>
+      <c r="N343" t="n">
+        <v>370.48</v>
+      </c>
+      <c r="O343" t="n">
+        <v>373.44</v>
+      </c>
+      <c r="P343" t="n">
+        <v>389.03</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>392.89</v>
+      </c>
+      <c r="R343" t="n">
+        <v>393.41</v>
+      </c>
+      <c r="S343" t="n">
+        <v>386.24</v>
+      </c>
+      <c r="T343" t="n">
+        <v>379.26</v>
+      </c>
+      <c r="U343" t="n">
+        <v>372.3871428571428</v>
+      </c>
+      <c r="V343" t="n">
+        <v>376.9671428571429</v>
+      </c>
+      <c r="W343" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25059,7 +25284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B343"/>
+  <dimension ref="A1:B346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28497,6 +28722,36 @@
       </c>
       <c r="B343" t="n">
         <v>0.16</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>-0.18</v>
       </c>
     </row>
   </sheetData>
@@ -28670,28 +28925,28 @@
         <v>0.0305</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1247269709562109</v>
+        <v>-0.1360278059214259</v>
       </c>
       <c r="J2" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K2" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008408183547551462</v>
+        <v>0.01015821023655161</v>
       </c>
       <c r="M2" t="n">
-        <v>7.075679791557476</v>
+        <v>7.069892952700211</v>
       </c>
       <c r="N2" t="n">
-        <v>90.11878412316281</v>
+        <v>89.78455292320183</v>
       </c>
       <c r="O2" t="n">
-        <v>9.493091389171539</v>
+        <v>9.475471118799415</v>
       </c>
       <c r="P2" t="n">
-        <v>358.3190538529824</v>
+        <v>358.4325226051139</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28748,28 +29003,28 @@
         <v>0.03</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1074196744106259</v>
+        <v>-0.1164266373184379</v>
       </c>
       <c r="J3" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K3" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00481677432024763</v>
+        <v>0.005774548052689288</v>
       </c>
       <c r="M3" t="n">
-        <v>8.380117068757684</v>
+        <v>8.340293328090391</v>
       </c>
       <c r="N3" t="n">
-        <v>116.6290351884165</v>
+        <v>115.7512642402814</v>
       </c>
       <c r="O3" t="n">
-        <v>10.79949235790352</v>
+        <v>10.75877614974312</v>
       </c>
       <c r="P3" t="n">
-        <v>353.4076605375778</v>
+        <v>353.4981319066511</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28826,28 +29081,28 @@
         <v>0.0306</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0891178248008697</v>
+        <v>0.07772020699869363</v>
       </c>
       <c r="J4" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K4" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004034501725292627</v>
+        <v>0.00312039074543724</v>
       </c>
       <c r="M4" t="n">
-        <v>7.684384655301162</v>
+        <v>7.660418222819941</v>
       </c>
       <c r="N4" t="n">
-        <v>96.57351864989541</v>
+        <v>96.35262456011101</v>
       </c>
       <c r="O4" t="n">
-        <v>9.827182640507676</v>
+        <v>9.815937273643868</v>
       </c>
       <c r="P4" t="n">
-        <v>355.0788209876835</v>
+        <v>355.1927988004772</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28904,28 +29159,28 @@
         <v>0.0306</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08186362232661393</v>
+        <v>0.07696131421385527</v>
       </c>
       <c r="J5" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K5" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003381526343722685</v>
+        <v>0.00304082846124909</v>
       </c>
       <c r="M5" t="n">
-        <v>7.711955673794416</v>
+        <v>7.695688171441232</v>
       </c>
       <c r="N5" t="n">
-        <v>97.70957194163658</v>
+        <v>97.36301854743979</v>
       </c>
       <c r="O5" t="n">
-        <v>9.884815220409362</v>
+        <v>9.867270065597667</v>
       </c>
       <c r="P5" t="n">
-        <v>345.6474371569115</v>
+        <v>345.6962372666429</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28982,28 +29237,28 @@
         <v>0.0356</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1619170003810737</v>
+        <v>0.1487368562390428</v>
       </c>
       <c r="J6" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K6" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01494448356836131</v>
+        <v>0.01275456068027248</v>
       </c>
       <c r="M6" t="n">
-        <v>6.900085784328486</v>
+        <v>6.935942890311173</v>
       </c>
       <c r="N6" t="n">
-        <v>86.32675651341484</v>
+        <v>86.67800104373966</v>
       </c>
       <c r="O6" t="n">
-        <v>9.291219323286629</v>
+        <v>9.310102096311278</v>
       </c>
       <c r="P6" t="n">
-        <v>343.319322563364</v>
+        <v>343.4497932665743</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29060,28 +29315,28 @@
         <v>0.0358</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1082945877069581</v>
+        <v>0.1035805545751369</v>
       </c>
       <c r="J7" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K7" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006878458308029467</v>
+        <v>0.006375559784091434</v>
       </c>
       <c r="M7" t="n">
-        <v>7.102522549089187</v>
+        <v>7.10504844585509</v>
       </c>
       <c r="N7" t="n">
-        <v>83.88049770388609</v>
+        <v>83.9347357688048</v>
       </c>
       <c r="O7" t="n">
-        <v>9.158629684832011</v>
+        <v>9.161590242354478</v>
       </c>
       <c r="P7" t="n">
-        <v>355.7178588193001</v>
+        <v>355.7647785062282</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29138,28 +29393,28 @@
         <v>0.036</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01708304748374768</v>
+        <v>-0.02342285259714248</v>
       </c>
       <c r="J8" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K8" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002036395642364131</v>
+        <v>0.0003895521192216478</v>
       </c>
       <c r="M8" t="n">
-        <v>6.292831710171638</v>
+        <v>6.293395246659651</v>
       </c>
       <c r="N8" t="n">
-        <v>71.19266339994442</v>
+        <v>70.89347334342676</v>
       </c>
       <c r="O8" t="n">
-        <v>8.437574497445603</v>
+        <v>8.419826206248366</v>
       </c>
       <c r="P8" t="n">
-        <v>356.2879289407032</v>
+        <v>356.350905066546</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29216,28 +29471,28 @@
         <v>0.0403</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05171166551479255</v>
+        <v>0.03911533097542872</v>
       </c>
       <c r="J9" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K9" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001650855421350905</v>
+        <v>0.0009553609903608651</v>
       </c>
       <c r="M9" t="n">
-        <v>6.480113584490402</v>
+        <v>6.500583495710329</v>
       </c>
       <c r="N9" t="n">
-        <v>79.8182273157737</v>
+        <v>80.0684982409646</v>
       </c>
       <c r="O9" t="n">
-        <v>8.934104729393633</v>
+        <v>8.948100258768036</v>
       </c>
       <c r="P9" t="n">
-        <v>369.1006744288649</v>
+        <v>369.2256632200327</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29294,28 +29549,28 @@
         <v>0.0361</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09426430445680663</v>
+        <v>0.07595074694699602</v>
       </c>
       <c r="J10" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K10" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004669964532838522</v>
+        <v>0.003073381195578651</v>
       </c>
       <c r="M10" t="n">
-        <v>7.25472135555736</v>
+        <v>7.264630740606191</v>
       </c>
       <c r="N10" t="n">
-        <v>93.96130889551839</v>
+        <v>94.10105432115174</v>
       </c>
       <c r="O10" t="n">
-        <v>9.693364168105848</v>
+        <v>9.700569793633347</v>
       </c>
       <c r="P10" t="n">
-        <v>364.8099122386041</v>
+        <v>364.991963903555</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29372,28 +29627,28 @@
         <v>0.0255</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05987353052336093</v>
+        <v>0.05278573363434878</v>
       </c>
       <c r="J11" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K11" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001845391033453381</v>
+        <v>0.001465240702323678</v>
       </c>
       <c r="M11" t="n">
-        <v>7.617336401400416</v>
+        <v>7.583477954779023</v>
       </c>
       <c r="N11" t="n">
-        <v>96.32678992038346</v>
+        <v>95.64610783252104</v>
       </c>
       <c r="O11" t="n">
-        <v>9.814621231631074</v>
+        <v>9.779882812821484</v>
       </c>
       <c r="P11" t="n">
-        <v>355.4665896910466</v>
+        <v>355.5367168696901</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29450,28 +29705,28 @@
         <v>0.0306</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05356615717055152</v>
+        <v>0.03893271297101701</v>
       </c>
       <c r="J12" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K12" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001552574594416156</v>
+        <v>0.0008280787477166207</v>
       </c>
       <c r="M12" t="n">
-        <v>7.31622070344204</v>
+        <v>7.31614393042032</v>
       </c>
       <c r="N12" t="n">
-        <v>92.68893836341246</v>
+        <v>93.13351880848447</v>
       </c>
       <c r="O12" t="n">
-        <v>9.627509457975746</v>
+        <v>9.650570905831659</v>
       </c>
       <c r="P12" t="n">
-        <v>357.0383481428356</v>
+        <v>357.1822613637098</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29528,28 +29783,28 @@
         <v>0.0252</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.07558792064409127</v>
+        <v>-0.08807890709445577</v>
       </c>
       <c r="J13" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K13" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00191085636496513</v>
+        <v>0.002642618182874257</v>
       </c>
       <c r="M13" t="n">
-        <v>9.262160767593507</v>
+        <v>9.241407224987773</v>
       </c>
       <c r="N13" t="n">
-        <v>149.0496523156971</v>
+        <v>148.3685516266928</v>
       </c>
       <c r="O13" t="n">
-        <v>12.20858928442173</v>
+        <v>12.18066302081676</v>
       </c>
       <c r="P13" t="n">
-        <v>368.5243154534468</v>
+        <v>368.6473781402311</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29606,28 +29861,28 @@
         <v>0.031</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0405754938084578</v>
+        <v>0.02413484087140726</v>
       </c>
       <c r="J14" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K14" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0006296453049244866</v>
+        <v>0.0002252361561092542</v>
       </c>
       <c r="M14" t="n">
-        <v>8.258081063707461</v>
+        <v>8.282067289513844</v>
       </c>
       <c r="N14" t="n">
-        <v>129.9097548035253</v>
+        <v>130.4791642864888</v>
       </c>
       <c r="O14" t="n">
-        <v>11.3977960502689</v>
+        <v>11.4227476679864</v>
       </c>
       <c r="P14" t="n">
-        <v>366.7136867067001</v>
+        <v>366.8751592194549</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29684,28 +29939,28 @@
         <v>0.0206</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.08085035346533252</v>
+        <v>-0.08855461309126228</v>
       </c>
       <c r="J15" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K15" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002329682385888487</v>
+        <v>0.002854199711955552</v>
       </c>
       <c r="M15" t="n">
-        <v>9.414825786000097</v>
+        <v>9.382005542096753</v>
       </c>
       <c r="N15" t="n">
-        <v>138.7585276646045</v>
+        <v>137.8746731761102</v>
       </c>
       <c r="O15" t="n">
-        <v>11.77958096303109</v>
+        <v>11.74200464895625</v>
       </c>
       <c r="P15" t="n">
-        <v>372.2147004685258</v>
+        <v>372.2907826079885</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29762,28 +30017,28 @@
         <v>0.0227</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.08045160997638648</v>
+        <v>-0.08178988243134826</v>
       </c>
       <c r="J16" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K16" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001861526005851211</v>
+        <v>0.001960536497297549</v>
       </c>
       <c r="M16" t="n">
-        <v>10.61098794244398</v>
+        <v>10.59007090261956</v>
       </c>
       <c r="N16" t="n">
-        <v>174.6047598651438</v>
+        <v>173.8565079084938</v>
       </c>
       <c r="O16" t="n">
-        <v>13.21380943805169</v>
+        <v>13.18546578276603</v>
       </c>
       <c r="P16" t="n">
-        <v>379.3751396924418</v>
+        <v>379.3880307156792</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29840,28 +30095,28 @@
         <v>0.0266</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.06540608773611102</v>
+        <v>-0.07169924152769956</v>
       </c>
       <c r="J17" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K17" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001545726372153777</v>
+        <v>0.001865208634277082</v>
       </c>
       <c r="M17" t="n">
-        <v>9.209086686159766</v>
+        <v>9.269440442945188</v>
       </c>
       <c r="N17" t="n">
-        <v>138.6074036549294</v>
+        <v>140.0035900987653</v>
       </c>
       <c r="O17" t="n">
-        <v>11.77316455567191</v>
+        <v>11.83231127458897</v>
       </c>
       <c r="P17" t="n">
-        <v>375.9035239851241</v>
+        <v>375.965540634425</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29918,28 +30173,28 @@
         <v>0.0255</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02984032826403228</v>
+        <v>0.02326817660903264</v>
       </c>
       <c r="J18" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K18" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003660581911615335</v>
+        <v>0.0002250892769384283</v>
       </c>
       <c r="M18" t="n">
-        <v>8.808357338795373</v>
+        <v>8.821520910956776</v>
       </c>
       <c r="N18" t="n">
-        <v>121.3510825008993</v>
+        <v>121.7516748801119</v>
       </c>
       <c r="O18" t="n">
-        <v>11.01594673647705</v>
+        <v>11.03411414115841</v>
       </c>
       <c r="P18" t="n">
-        <v>382.3552928737186</v>
+        <v>382.4201834553959</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29996,28 +30251,28 @@
         <v>0.0257</v>
       </c>
       <c r="I19" t="n">
-        <v>0.05076406596363067</v>
+        <v>0.03987065921143639</v>
       </c>
       <c r="J19" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K19" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0009224234588243174</v>
+        <v>0.0005764149055823564</v>
       </c>
       <c r="M19" t="n">
-        <v>8.900007682775655</v>
+        <v>8.909140811027878</v>
       </c>
       <c r="N19" t="n">
-        <v>139.8071882580002</v>
+        <v>140.0649955926971</v>
       </c>
       <c r="O19" t="n">
-        <v>11.82400897572394</v>
+        <v>11.83490581258242</v>
       </c>
       <c r="P19" t="n">
-        <v>378.5870475988639</v>
+        <v>378.6942120962647</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30074,28 +30329,28 @@
         <v>0.0283</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05399200802018576</v>
+        <v>0.04778735263351652</v>
       </c>
       <c r="J20" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K20" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0009797429327087492</v>
+        <v>0.0007799343697492134</v>
       </c>
       <c r="M20" t="n">
-        <v>9.49693837255813</v>
+        <v>9.486759718246462</v>
       </c>
       <c r="N20" t="n">
-        <v>148.0765341494841</v>
+        <v>147.7864783990357</v>
       </c>
       <c r="O20" t="n">
-        <v>12.16867018821219</v>
+        <v>12.15674620937016</v>
       </c>
       <c r="P20" t="n">
-        <v>369.742909426796</v>
+        <v>369.8045799420114</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30152,28 +30407,28 @@
         <v>0.0413</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1457614632084058</v>
+        <v>0.1423687680828337</v>
       </c>
       <c r="J21" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K21" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L21" t="n">
-        <v>0.009290415121956053</v>
+        <v>0.008978110947970408</v>
       </c>
       <c r="M21" t="n">
-        <v>8.26049095643582</v>
+        <v>8.270526216995975</v>
       </c>
       <c r="N21" t="n">
-        <v>112.4505033223715</v>
+        <v>112.6580249483966</v>
       </c>
       <c r="O21" t="n">
-        <v>10.60426816533661</v>
+        <v>10.61404847117237</v>
       </c>
       <c r="P21" t="n">
-        <v>357.053618731464</v>
+        <v>357.0870454922085</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30230,28 +30485,28 @@
         <v>0.0405</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03478160607854716</v>
+        <v>0.03490862141054894</v>
       </c>
       <c r="J22" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K22" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0005358579396438357</v>
+        <v>0.0005466267325451302</v>
       </c>
       <c r="M22" t="n">
-        <v>8.132681039328537</v>
+        <v>8.154488042822287</v>
       </c>
       <c r="N22" t="n">
-        <v>112.1896867826076</v>
+        <v>112.4276653005493</v>
       </c>
       <c r="O22" t="n">
-        <v>10.59196331104898</v>
+        <v>10.60319127907015</v>
       </c>
       <c r="P22" t="n">
-        <v>360.5736930055946</v>
+        <v>360.5720562085985</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30289,7 +30544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W340"/>
+  <dimension ref="A1:W343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68217,6 +68472,357 @@
         </is>
       </c>
     </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:54:08+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>-39.19700023336088,177.92014890695677</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>-39.19761522934461,177.91972798411368</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>-39.19820984962202,177.919255220892</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>-39.19878523807551,177.9187483203984</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>-39.199377082118936,177.91824995810825</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>-39.20006507942447,177.91800094331086</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>-39.20077312665114,177.91794026013523</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>-39.20146602002478,177.91785740119022</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>-39.20215097648384,177.91768099428026</t>
+        </is>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>-39.202837438144805,177.91756618326755</t>
+        </is>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>-39.2034379890087,177.917096975755</t>
+        </is>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>-39.20412087372324,177.91689615508545</t>
+        </is>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>-39.204738892329246,177.9164617474474</t>
+        </is>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>-39.205433323168066,177.91630218679072</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>-39.20610362155902,177.91605979257477</t>
+        </is>
+      </c>
+      <c r="Q341" t="inlineStr">
+        <is>
+          <t>-39.20672532046188,177.9156245070156</t>
+        </is>
+      </c>
+      <c r="R341" t="inlineStr">
+        <is>
+          <t>-39.20740813476301,177.91543520155489</t>
+        </is>
+      </c>
+      <c r="S341" t="inlineStr">
+        <is>
+          <t>-39.20805305237837,177.91508856061023</t>
+        </is>
+      </c>
+      <c r="T341" t="inlineStr">
+        <is>
+          <t>-39.20870100164738,177.9147520655259</t>
+        </is>
+      </c>
+      <c r="U341" t="inlineStr">
+        <is>
+          <t>-39.20933433237563,177.91435573355386</t>
+        </is>
+      </c>
+      <c r="V341" t="inlineStr">
+        <is>
+          <t>-39.210001679715525,177.91410452721726</t>
+        </is>
+      </c>
+      <c r="W341" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>-39.196989693960674,177.92012101626327</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>-39.19760670613147,177.9197054288518</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>-39.19826453646067,177.9193976706461</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>-39.1988531180032,177.91891259345456</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>-39.199390927533564,177.91828737671432</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>-39.20011281516906,177.91824902676098</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>-39.20076988127555,177.9179028870889</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>-39.20147359704385,177.9179467255164</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>-39.202162163041265,177.91781433453576</t>
+        </is>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>-39.20283667057278,177.91756178576753</t>
+        </is>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>-39.203498892602354,177.9173111992492</t>
+        </is>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>-39.20415863886719,177.91702271988083</t>
+        </is>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>-39.20480446366051,177.91669555760086</t>
+        </is>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>-39.205459071982084,177.91640200611363</t>
+        </is>
+      </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>-39.2061358658032,177.91618715860324</t>
+        </is>
+      </c>
+      <c r="Q342" t="inlineStr">
+        <is>
+          <t>-39.20676564994212,177.91578543693893</t>
+        </is>
+      </c>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>-39.20745990056957,177.91565014720842</t>
+        </is>
+      </c>
+      <c r="S342" t="inlineStr">
+        <is>
+          <t>-39.208107491797705,177.91532155002028</t>
+        </is>
+      </c>
+      <c r="T342" t="inlineStr">
+        <is>
+          <t>-39.208744682838095,177.91493901211575</t>
+        </is>
+      </c>
+      <c r="U342" t="inlineStr">
+        <is>
+          <t>-39.20937717165084,177.9145349871403</t>
+        </is>
+      </c>
+      <c r="V342" t="inlineStr">
+        <is>
+          <t>-39.21002820494188,177.91421308699054</t>
+        </is>
+      </c>
+      <c r="W342" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:53:55+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>-39.19703479730575,177.9202403746277</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>-39.19760745240378,177.91970740373628</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>-39.19826323692112,177.91939428556222</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>-39.19884781862679,177.9188997686473</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>-39.1994569219922,177.91846573395654</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>-39.20009665149645,177.9181650235351</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>-39.20078230851872,177.91804599732177</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>-39.201485700918596,177.9180894179936</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>-39.20216121981837,177.91780309154174</t>
+        </is>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>-39.20284985704265,177.91763733257392</t>
+        </is>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>-39.2035007543675,177.9173177478869</t>
+        </is>
+      </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>-39.204170776482435,177.91706339759497</t>
+        </is>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>-39.204819474262344,177.91674908177228</t>
+        </is>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>-39.205475172018645,177.91646442064646</t>
+        </is>
+      </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>-39.2061713370836,177.91632727234386</t>
+        </is>
+      </c>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>-39.206834785646805,177.91606131718893</t>
+        </is>
+      </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>-39.20748747160638,177.9157646304466</t>
+        </is>
+      </c>
+      <c r="S343" t="inlineStr">
+        <is>
+          <t>-39.208125077823425,177.91539681507558</t>
+        </is>
+      </c>
+      <c r="T343" t="inlineStr">
+        <is>
+          <t>-39.20876599314433,177.91503021644675</t>
+        </is>
+      </c>
+      <c r="U343" t="inlineStr">
+        <is>
+          <t>-39.20940814489161,177.9146645902231</t>
+        </is>
+      </c>
+      <c r="V343" t="inlineStr">
+        <is>
+          <t>-39.2100775103275,177.91441488045876</t>
+        </is>
+      </c>
+      <c r="W343" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0287/nzd0287.xlsx
+++ b/data/nzd0287/nzd0287.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W343"/>
+  <dimension ref="A1:W345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25273,6 +25273,132 @@
         </is>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:29+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>359.1333333333333</v>
+      </c>
+      <c r="C344" t="n">
+        <v>358.03</v>
+      </c>
+      <c r="D344" t="n">
+        <v>372.2233333333333</v>
+      </c>
+      <c r="E344" t="n">
+        <v>358.4533333333333</v>
+      </c>
+      <c r="F344" t="n">
+        <v>349.7514285714286</v>
+      </c>
+      <c r="G344" t="n">
+        <v>368.6014285714285</v>
+      </c>
+      <c r="H344" t="n">
+        <v>357.5314285714285</v>
+      </c>
+      <c r="I344" t="n">
+        <v>371.5514285714286</v>
+      </c>
+      <c r="J344" t="n">
+        <v>374.0714285714286</v>
+      </c>
+      <c r="K344" t="n">
+        <v>361.78</v>
+      </c>
+      <c r="L344" t="n">
+        <v>365.0533333333333</v>
+      </c>
+      <c r="M344" t="n">
+        <v>374.77</v>
+      </c>
+      <c r="N344" t="n">
+        <v>377.7133333333333</v>
+      </c>
+      <c r="O344" t="n">
+        <v>381.25</v>
+      </c>
+      <c r="P344" t="n">
+        <v>388.69</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>380.8</v>
+      </c>
+      <c r="R344" t="n">
+        <v>390.88</v>
+      </c>
+      <c r="S344" t="n">
+        <v>387.9</v>
+      </c>
+      <c r="T344" t="n">
+        <v>380.27</v>
+      </c>
+      <c r="U344" t="n">
+        <v>365.8514285714285</v>
+      </c>
+      <c r="V344" t="n">
+        <v>368.3614285714286</v>
+      </c>
+      <c r="W344" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>382.6133333333333</v>
+      </c>
+      <c r="C345" t="n">
+        <v>387.49</v>
+      </c>
+      <c r="D345" t="n">
+        <v>386.5933333333333</v>
+      </c>
+      <c r="E345" t="n">
+        <v>365.2233333333333</v>
+      </c>
+      <c r="F345" t="n">
+        <v>367.17</v>
+      </c>
+      <c r="G345" t="n">
+        <v>384.02</v>
+      </c>
+      <c r="H345" t="n">
+        <v>374.03</v>
+      </c>
+      <c r="I345" t="n">
+        <v>402.69</v>
+      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>375.42</v>
+      </c>
+      <c r="L345" t="inlineStr"/>
+      <c r="M345" t="inlineStr"/>
+      <c r="N345" t="inlineStr"/>
+      <c r="O345" t="inlineStr"/>
+      <c r="P345" t="inlineStr"/>
+      <c r="Q345" t="inlineStr"/>
+      <c r="R345" t="inlineStr"/>
+      <c r="S345" t="inlineStr"/>
+      <c r="T345" t="inlineStr"/>
+      <c r="U345" t="inlineStr"/>
+      <c r="V345" t="inlineStr"/>
+      <c r="W345" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25284,7 +25410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B346"/>
+  <dimension ref="A1:B348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28752,6 +28878,26 @@
       </c>
       <c r="B346" t="n">
         <v>-0.18</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>-0.77</v>
       </c>
     </row>
   </sheetData>
@@ -28925,28 +29071,28 @@
         <v>0.0305</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1360278059214259</v>
+        <v>-0.1144632464142942</v>
       </c>
       <c r="J2" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K2" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01015821023655161</v>
+        <v>0.007136192423116694</v>
       </c>
       <c r="M2" t="n">
-        <v>7.069892952700211</v>
+        <v>7.121022422219765</v>
       </c>
       <c r="N2" t="n">
-        <v>89.78455292320183</v>
+        <v>91.60036123199514</v>
       </c>
       <c r="O2" t="n">
-        <v>9.475471118799415</v>
+        <v>9.570807762775049</v>
       </c>
       <c r="P2" t="n">
-        <v>358.4325226051139</v>
+        <v>358.2142876922524</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29003,28 +29149,28 @@
         <v>0.03</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1164266373184379</v>
+        <v>-0.08653463938692835</v>
       </c>
       <c r="J3" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K3" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005774548052689288</v>
+        <v>0.00313224211034091</v>
       </c>
       <c r="M3" t="n">
-        <v>8.340293328090391</v>
+        <v>8.437174622613238</v>
       </c>
       <c r="N3" t="n">
-        <v>115.7512642402814</v>
+        <v>119.2834006309534</v>
       </c>
       <c r="O3" t="n">
-        <v>10.75877614974312</v>
+        <v>10.92169403668467</v>
       </c>
       <c r="P3" t="n">
-        <v>353.4981319066511</v>
+        <v>353.1959059386488</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29081,28 +29227,28 @@
         <v>0.0306</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07772020699869363</v>
+        <v>0.1073352612233554</v>
       </c>
       <c r="J4" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K4" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00312039074543724</v>
+        <v>0.005829280553488858</v>
       </c>
       <c r="M4" t="n">
-        <v>7.660418222819941</v>
+        <v>7.761919443127455</v>
       </c>
       <c r="N4" t="n">
-        <v>96.35262456011101</v>
+        <v>98.99379958980656</v>
       </c>
       <c r="O4" t="n">
-        <v>9.815937273643868</v>
+        <v>9.949562783851688</v>
       </c>
       <c r="P4" t="n">
-        <v>355.1927988004772</v>
+        <v>354.8942223951627</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29159,28 +29305,28 @@
         <v>0.0306</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07696131421385527</v>
+        <v>0.0956632916082866</v>
       </c>
       <c r="J5" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K5" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00304082846124909</v>
+        <v>0.004700548930845483</v>
       </c>
       <c r="M5" t="n">
-        <v>7.695688171441232</v>
+        <v>7.738298951077915</v>
       </c>
       <c r="N5" t="n">
-        <v>97.36301854743979</v>
+        <v>98.02443371753247</v>
       </c>
       <c r="O5" t="n">
-        <v>9.867270065597667</v>
+        <v>9.900728948796269</v>
       </c>
       <c r="P5" t="n">
-        <v>345.6962372666429</v>
+        <v>345.5081316959186</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29237,28 +29383,28 @@
         <v>0.0356</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1487368562390428</v>
+        <v>0.163223940277529</v>
       </c>
       <c r="J6" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K6" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01275456068027248</v>
+        <v>0.0153386059666446</v>
       </c>
       <c r="M6" t="n">
-        <v>6.935942890311173</v>
+        <v>6.957031948809661</v>
       </c>
       <c r="N6" t="n">
-        <v>86.67800104373966</v>
+        <v>87.33649939809207</v>
       </c>
       <c r="O6" t="n">
-        <v>9.310102096311278</v>
+        <v>9.345399905733947</v>
       </c>
       <c r="P6" t="n">
-        <v>343.4497932665743</v>
+        <v>343.305107110679</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29315,28 +29461,28 @@
         <v>0.0358</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1035805545751369</v>
+        <v>0.1269473168657323</v>
       </c>
       <c r="J7" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K7" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006375559784091434</v>
+        <v>0.009438863176050249</v>
       </c>
       <c r="M7" t="n">
-        <v>7.10504844585509</v>
+        <v>7.169281553533216</v>
       </c>
       <c r="N7" t="n">
-        <v>83.9347357688048</v>
+        <v>85.64741183351708</v>
       </c>
       <c r="O7" t="n">
-        <v>9.161590242354478</v>
+        <v>9.254588690672161</v>
       </c>
       <c r="P7" t="n">
-        <v>355.7647785062282</v>
+        <v>355.5297471820348</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29393,28 +29539,28 @@
         <v>0.036</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.02342285259714248</v>
+        <v>-0.01026042823412094</v>
       </c>
       <c r="J8" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K8" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003895521192216478</v>
+        <v>7.484099854038195e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>6.293395246659651</v>
+        <v>6.306691850162155</v>
       </c>
       <c r="N8" t="n">
-        <v>70.89347334342676</v>
+        <v>71.46336643715033</v>
       </c>
       <c r="O8" t="n">
-        <v>8.419826206248366</v>
+        <v>8.453600797124876</v>
       </c>
       <c r="P8" t="n">
-        <v>356.350905066546</v>
+        <v>356.2190105769981</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29471,28 +29617,28 @@
         <v>0.0403</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03911533097542872</v>
+        <v>0.0615962728500101</v>
       </c>
       <c r="J9" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K9" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0009553609903608651</v>
+        <v>0.002311593143569546</v>
       </c>
       <c r="M9" t="n">
-        <v>6.500583495710329</v>
+        <v>6.571045730218185</v>
       </c>
       <c r="N9" t="n">
-        <v>80.0684982409646</v>
+        <v>82.70459265495882</v>
       </c>
       <c r="O9" t="n">
-        <v>8.948100258768036</v>
+        <v>9.09420654345165</v>
       </c>
       <c r="P9" t="n">
-        <v>369.2256632200327</v>
+        <v>369.0006138564104</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29549,28 +29695,28 @@
         <v>0.0361</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07595074694699602</v>
+        <v>0.08070540331634503</v>
       </c>
       <c r="J10" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K10" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003073381195578651</v>
+        <v>0.003489429007725753</v>
       </c>
       <c r="M10" t="n">
-        <v>7.264630740606191</v>
+        <v>7.265691187088238</v>
       </c>
       <c r="N10" t="n">
-        <v>94.10105432115174</v>
+        <v>93.96930998762302</v>
       </c>
       <c r="O10" t="n">
-        <v>9.700569793633347</v>
+        <v>9.693776869085806</v>
       </c>
       <c r="P10" t="n">
-        <v>364.991963903555</v>
+        <v>364.9443728722672</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29627,28 +29773,28 @@
         <v>0.0255</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05278573363434878</v>
+        <v>0.06841610820735906</v>
       </c>
       <c r="J11" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K11" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001465240702323678</v>
+        <v>0.002468496994865732</v>
       </c>
       <c r="M11" t="n">
-        <v>7.583477954779023</v>
+        <v>7.611247299553566</v>
       </c>
       <c r="N11" t="n">
-        <v>95.64610783252104</v>
+        <v>96.15791692458278</v>
       </c>
       <c r="O11" t="n">
-        <v>9.779882812821484</v>
+        <v>9.806014324106547</v>
       </c>
       <c r="P11" t="n">
-        <v>355.5367168696901</v>
+        <v>355.3808415289899</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29705,28 +29851,28 @@
         <v>0.0306</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03893271297101701</v>
+        <v>0.04352799779061326</v>
       </c>
       <c r="J12" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K12" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0008280787477166207</v>
+        <v>0.001041188659713366</v>
       </c>
       <c r="M12" t="n">
-        <v>7.31614393042032</v>
+        <v>7.314678849078288</v>
       </c>
       <c r="N12" t="n">
-        <v>93.13351880848447</v>
+        <v>92.99276625787425</v>
       </c>
       <c r="O12" t="n">
-        <v>9.650570905831659</v>
+        <v>9.643275701641754</v>
       </c>
       <c r="P12" t="n">
-        <v>357.1822613637098</v>
+        <v>357.1367093117133</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29783,28 +29929,28 @@
         <v>0.0252</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.08807890709445577</v>
+        <v>-0.08216786013637578</v>
       </c>
       <c r="J13" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K13" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002642618182874257</v>
+        <v>0.002315643424235403</v>
       </c>
       <c r="M13" t="n">
-        <v>9.241407224987773</v>
+        <v>9.23471419640371</v>
       </c>
       <c r="N13" t="n">
-        <v>148.3685516266928</v>
+        <v>148.1184870541161</v>
       </c>
       <c r="O13" t="n">
-        <v>12.18066302081676</v>
+        <v>12.17039387423908</v>
       </c>
       <c r="P13" t="n">
-        <v>368.6473781402311</v>
+        <v>368.5886880730283</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29861,28 +30007,28 @@
         <v>0.031</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02413484087140726</v>
+        <v>0.03143299667731785</v>
       </c>
       <c r="J14" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K14" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002252361561092542</v>
+        <v>0.0003841584412852539</v>
       </c>
       <c r="M14" t="n">
-        <v>8.282067289513844</v>
+        <v>8.282737087904083</v>
       </c>
       <c r="N14" t="n">
-        <v>130.4791642864888</v>
+        <v>130.3923113029045</v>
       </c>
       <c r="O14" t="n">
-        <v>11.4227476679864</v>
+        <v>11.4189452797929</v>
       </c>
       <c r="P14" t="n">
-        <v>366.8751592194549</v>
+        <v>366.8028947795226</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29939,28 +30085,28 @@
         <v>0.0206</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.08855461309126228</v>
+        <v>-0.08032437556055744</v>
       </c>
       <c r="J15" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K15" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002854199711955552</v>
+        <v>0.00236210679756621</v>
       </c>
       <c r="M15" t="n">
-        <v>9.382005542096753</v>
+        <v>9.383979583715279</v>
       </c>
       <c r="N15" t="n">
-        <v>137.8746731761102</v>
+        <v>137.831933238501</v>
       </c>
       <c r="O15" t="n">
-        <v>11.74200464895625</v>
+        <v>11.74018454874117</v>
       </c>
       <c r="P15" t="n">
-        <v>372.2907826079885</v>
+        <v>372.208801517917</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30017,28 +30163,28 @@
         <v>0.0227</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.08178988243134826</v>
+        <v>-0.07354270725795911</v>
       </c>
       <c r="J16" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K16" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001960536497297549</v>
+        <v>0.001594801169454652</v>
       </c>
       <c r="M16" t="n">
-        <v>10.59007090261956</v>
+        <v>10.58986432443016</v>
       </c>
       <c r="N16" t="n">
-        <v>173.8565079084938</v>
+        <v>173.7072474482586</v>
       </c>
       <c r="O16" t="n">
-        <v>13.18546578276603</v>
+        <v>13.17980452997155</v>
       </c>
       <c r="P16" t="n">
-        <v>379.3880307156792</v>
+        <v>379.3061177085774</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30095,28 +30241,28 @@
         <v>0.0266</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.07169924152769956</v>
+        <v>-0.06683024093756591</v>
       </c>
       <c r="J17" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K17" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001865208634277082</v>
+        <v>0.001632455705431801</v>
       </c>
       <c r="M17" t="n">
-        <v>9.269440442945188</v>
+        <v>9.26184344642544</v>
       </c>
       <c r="N17" t="n">
-        <v>140.0035900987653</v>
+        <v>139.682864472948</v>
       </c>
       <c r="O17" t="n">
-        <v>11.83231127458897</v>
+        <v>11.81875054618499</v>
       </c>
       <c r="P17" t="n">
-        <v>375.965540634425</v>
+        <v>375.9168409346117</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30173,28 +30319,28 @@
         <v>0.0255</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02326817660903264</v>
+        <v>0.02888637705365348</v>
       </c>
       <c r="J18" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K18" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002250892769384283</v>
+        <v>0.0003491036009232173</v>
       </c>
       <c r="M18" t="n">
-        <v>8.821520910956776</v>
+        <v>8.816619983636228</v>
       </c>
       <c r="N18" t="n">
-        <v>121.7516748801119</v>
+        <v>121.5547537689843</v>
       </c>
       <c r="O18" t="n">
-        <v>11.03411414115841</v>
+        <v>11.02518724416889</v>
       </c>
       <c r="P18" t="n">
-        <v>382.4201834553959</v>
+        <v>382.3640330710894</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30251,28 +30397,28 @@
         <v>0.0257</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03987065921143639</v>
+        <v>0.0456416006007453</v>
       </c>
       <c r="J19" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K19" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0005764149055823564</v>
+        <v>0.0007601393561764702</v>
       </c>
       <c r="M19" t="n">
-        <v>8.909140811027878</v>
+        <v>8.904233478142688</v>
       </c>
       <c r="N19" t="n">
-        <v>140.0649955926971</v>
+        <v>139.828881246741</v>
       </c>
       <c r="O19" t="n">
-        <v>11.83490581258242</v>
+        <v>11.82492626813127</v>
       </c>
       <c r="P19" t="n">
-        <v>378.6942120962647</v>
+        <v>378.6368983297073</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30329,28 +30475,28 @@
         <v>0.0283</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04778735263351652</v>
+        <v>0.05427122597975938</v>
       </c>
       <c r="J20" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K20" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0007799343697492134</v>
+        <v>0.001011783926730958</v>
       </c>
       <c r="M20" t="n">
-        <v>9.486759718246462</v>
+        <v>9.485374455334201</v>
       </c>
       <c r="N20" t="n">
-        <v>147.7864783990357</v>
+        <v>147.583178137689</v>
       </c>
       <c r="O20" t="n">
-        <v>12.15674620937016</v>
+        <v>12.14838170859349</v>
       </c>
       <c r="P20" t="n">
-        <v>369.8045799420114</v>
+        <v>369.7393885046344</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30407,28 +30553,28 @@
         <v>0.0413</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1423687680828337</v>
+        <v>0.1460097296077611</v>
       </c>
       <c r="J21" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K21" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L21" t="n">
-        <v>0.008978110947970408</v>
+        <v>0.009507424872305825</v>
       </c>
       <c r="M21" t="n">
-        <v>8.270526216995975</v>
+        <v>8.26077511482714</v>
       </c>
       <c r="N21" t="n">
-        <v>112.6580249483966</v>
+        <v>112.3775872106792</v>
       </c>
       <c r="O21" t="n">
-        <v>10.61404847117237</v>
+        <v>10.60082955294911</v>
       </c>
       <c r="P21" t="n">
-        <v>357.0870454922085</v>
+        <v>357.050563116833</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30485,28 +30631,28 @@
         <v>0.0405</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03490862141054894</v>
+        <v>0.03995391412565102</v>
       </c>
       <c r="J22" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K22" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0005466267325451302</v>
+        <v>0.0007208490190975247</v>
       </c>
       <c r="M22" t="n">
-        <v>8.154488042822287</v>
+        <v>8.149251539218454</v>
       </c>
       <c r="N22" t="n">
-        <v>112.4276653005493</v>
+        <v>112.2100956730071</v>
       </c>
       <c r="O22" t="n">
-        <v>10.60319127907015</v>
+        <v>10.59292668118717</v>
       </c>
       <c r="P22" t="n">
-        <v>360.5720562085985</v>
+        <v>360.521485751256</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30544,7 +30690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W343"/>
+  <dimension ref="A1:W345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68823,6 +68969,192 @@
         </is>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:29+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>-39.19704576872346,177.92026940870147</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>-39.19765619569008,177.91983639495996</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>-39.19832761704301,177.91956198552134</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>-39.1988843519623,177.9189881816131</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>-39.199443308315004,177.91842894141388</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>-39.20011854736815,177.91827881730623</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>-39.20077998919822,177.91801928822161</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>-39.2014823433119,177.9180498349824</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>-39.202173580769895,177.91795043222427</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>-39.202857670494005,177.91768209688667</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>-39.203522365214674,177.91739376275953</t>
+        </is>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>-39.20419556679005,177.91714647943814</t>
+        </is>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>-39.204841527705696,177.91682771921796</t>
+        </is>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>-39.20549727060518,177.91655008984466</t>
+        </is>
+      </c>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>-39.20617039118511,177.9163235359758</t>
+        </is>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>-39.20680145835392,177.9159283270083</t>
+        </is>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>-39.20748074502881,177.91573669962034</t>
+        </is>
+      </c>
+      <c r="S344" t="inlineStr">
+        <is>
+          <t>-39.20812937087487,177.9154151886088</t>
+        </is>
+      </c>
+      <c r="T344" t="inlineStr">
+        <is>
+          <t>-39.20876860520339,177.9150413956217</t>
+        </is>
+      </c>
+      <c r="U344" t="inlineStr">
+        <is>
+          <t>-39.209390889360385,177.91459238683714</t>
+        </is>
+      </c>
+      <c r="V344" t="inlineStr">
+        <is>
+          <t>-39.2100543259505,177.91431999292055</t>
+        </is>
+      </c>
+      <c r="W344" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>-39.197137991165114,177.92051346156168</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>-39.19777190636762,177.92014260686784</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>-39.19838478318877,177.91971089503667</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>-39.198912901047215,177.91905727237523</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>-39.19951056571515,177.91861071280474</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>-39.20015182726723,177.91845177562018</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>-39.20079644227697,177.91820876207748</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>-39.20151268516458,177.91840754273667</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>-39.20288451556569,177.91783589675453</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr"/>
+      <c r="M345" t="inlineStr"/>
+      <c r="N345" t="inlineStr"/>
+      <c r="O345" t="inlineStr"/>
+      <c r="P345" t="inlineStr"/>
+      <c r="Q345" t="inlineStr"/>
+      <c r="R345" t="inlineStr"/>
+      <c r="S345" t="inlineStr"/>
+      <c r="T345" t="inlineStr"/>
+      <c r="U345" t="inlineStr"/>
+      <c r="V345" t="inlineStr"/>
+      <c r="W345" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0287/nzd0287.xlsx
+++ b/data/nzd0287/nzd0287.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W345"/>
+  <dimension ref="A1:W347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25399,6 +25399,156 @@
         </is>
       </c>
     </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:32+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>349.86</v>
+      </c>
+      <c r="C346" t="n">
+        <v>347.21</v>
+      </c>
+      <c r="D346" t="n">
+        <v>352</v>
+      </c>
+      <c r="E346" t="n">
+        <v>338.11</v>
+      </c>
+      <c r="F346" t="n">
+        <v>343.3942857142857</v>
+      </c>
+      <c r="G346" t="n">
+        <v>362.9642857142857</v>
+      </c>
+      <c r="H346" t="n">
+        <v>352.9642857142857</v>
+      </c>
+      <c r="I346" t="n">
+        <v>364.9442857142857</v>
+      </c>
+      <c r="J346" t="n">
+        <v>353.3342857142857</v>
+      </c>
+      <c r="K346" t="n">
+        <v>353.93</v>
+      </c>
+      <c r="L346" t="n">
+        <v>352.61</v>
+      </c>
+      <c r="M346" t="n">
+        <v>353.82</v>
+      </c>
+      <c r="N346" t="n">
+        <v>358.34</v>
+      </c>
+      <c r="O346" t="n">
+        <v>369.17</v>
+      </c>
+      <c r="P346" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>365.83</v>
+      </c>
+      <c r="R346" t="n">
+        <v>374.56</v>
+      </c>
+      <c r="S346" t="n">
+        <v>377.57</v>
+      </c>
+      <c r="T346" t="n">
+        <v>366.67</v>
+      </c>
+      <c r="U346" t="n">
+        <v>355.2142857142857</v>
+      </c>
+      <c r="V346" t="n">
+        <v>360.1742857142857</v>
+      </c>
+      <c r="W346" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>349.32</v>
+      </c>
+      <c r="C347" t="n">
+        <v>338.93</v>
+      </c>
+      <c r="D347" t="n">
+        <v>350.19</v>
+      </c>
+      <c r="E347" t="n">
+        <v>344.16</v>
+      </c>
+      <c r="F347" t="n">
+        <v>347.8557142857143</v>
+      </c>
+      <c r="G347" t="n">
+        <v>351.9457142857143</v>
+      </c>
+      <c r="H347" t="n">
+        <v>355.9157142857143</v>
+      </c>
+      <c r="I347" t="n">
+        <v>367.6357142857143</v>
+      </c>
+      <c r="J347" t="n">
+        <v>354.5457142857143</v>
+      </c>
+      <c r="K347" t="n">
+        <v>337.73</v>
+      </c>
+      <c r="L347" t="n">
+        <v>349.17</v>
+      </c>
+      <c r="M347" t="n">
+        <v>357.28</v>
+      </c>
+      <c r="N347" t="n">
+        <v>366.49</v>
+      </c>
+      <c r="O347" t="n">
+        <v>365.19</v>
+      </c>
+      <c r="P347" t="n">
+        <v>369.78</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>377.68</v>
+      </c>
+      <c r="R347" t="n">
+        <v>379.64</v>
+      </c>
+      <c r="S347" t="n">
+        <v>375.58</v>
+      </c>
+      <c r="T347" t="n">
+        <v>362.33</v>
+      </c>
+      <c r="U347" t="n">
+        <v>360.1057142857143</v>
+      </c>
+      <c r="V347" t="n">
+        <v>354.4257142857143</v>
+      </c>
+      <c r="W347" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25410,7 +25560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B348"/>
+  <dimension ref="A1:B350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28898,6 +29048,26 @@
       </c>
       <c r="B348" t="n">
         <v>-0.77</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.48</v>
       </c>
     </row>
   </sheetData>
@@ -29071,28 +29241,28 @@
         <v>0.0305</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1144632464142942</v>
+        <v>-0.1220003807213409</v>
       </c>
       <c r="J2" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K2" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007136192423116694</v>
+        <v>0.008202700636937843</v>
       </c>
       <c r="M2" t="n">
-        <v>7.121022422219765</v>
+        <v>7.112330491282677</v>
       </c>
       <c r="N2" t="n">
-        <v>91.60036123199514</v>
+        <v>91.23547715003195</v>
       </c>
       <c r="O2" t="n">
-        <v>9.570807762775049</v>
+        <v>9.551726396313493</v>
       </c>
       <c r="P2" t="n">
-        <v>358.2142876922524</v>
+        <v>358.2906749132649</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29149,28 +29319,28 @@
         <v>0.03</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08653463938692835</v>
+        <v>-0.09695585269819149</v>
       </c>
       <c r="J3" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K3" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00313224211034091</v>
+        <v>0.003971996203602113</v>
       </c>
       <c r="M3" t="n">
-        <v>8.437174622613238</v>
+        <v>8.427675834611192</v>
       </c>
       <c r="N3" t="n">
-        <v>119.2834006309534</v>
+        <v>119.0371528917373</v>
       </c>
       <c r="O3" t="n">
-        <v>10.92169403668467</v>
+        <v>10.910414881742</v>
       </c>
       <c r="P3" t="n">
-        <v>353.1959059386488</v>
+        <v>353.3014477020987</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29227,28 +29397,28 @@
         <v>0.0306</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1073352612233554</v>
+        <v>0.09872782019763508</v>
       </c>
       <c r="J4" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K4" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005829280553488858</v>
+        <v>0.004996338020194946</v>
       </c>
       <c r="M4" t="n">
-        <v>7.761919443127455</v>
+        <v>7.749311699726182</v>
       </c>
       <c r="N4" t="n">
-        <v>98.99379958980656</v>
+        <v>98.65889981524231</v>
       </c>
       <c r="O4" t="n">
-        <v>9.949562783851688</v>
+        <v>9.932718651771141</v>
       </c>
       <c r="P4" t="n">
-        <v>354.8942223951627</v>
+        <v>354.9811471622227</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29305,28 +29475,28 @@
         <v>0.0306</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0956632916082866</v>
+        <v>0.08678476933010956</v>
       </c>
       <c r="J5" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K5" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004700548930845483</v>
+        <v>0.003915551274839113</v>
       </c>
       <c r="M5" t="n">
-        <v>7.738298951077915</v>
+        <v>7.729799864713553</v>
       </c>
       <c r="N5" t="n">
-        <v>98.02443371753247</v>
+        <v>97.76821846290721</v>
       </c>
       <c r="O5" t="n">
-        <v>9.900728948796269</v>
+        <v>9.887781270988311</v>
       </c>
       <c r="P5" t="n">
-        <v>345.5081316959186</v>
+        <v>345.5975627361677</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29383,28 +29553,28 @@
         <v>0.0356</v>
       </c>
       <c r="I6" t="n">
-        <v>0.163223940277529</v>
+        <v>0.160819984739472</v>
       </c>
       <c r="J6" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K6" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0153386059666446</v>
+        <v>0.01510155831431692</v>
       </c>
       <c r="M6" t="n">
-        <v>6.957031948809661</v>
+        <v>6.929819115471548</v>
       </c>
       <c r="N6" t="n">
-        <v>87.33649939809207</v>
+        <v>86.87392491697467</v>
       </c>
       <c r="O6" t="n">
-        <v>9.345399905733947</v>
+        <v>9.320618269029939</v>
       </c>
       <c r="P6" t="n">
-        <v>343.305107110679</v>
+        <v>343.3291375444066</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29461,28 +29631,28 @@
         <v>0.0358</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1269473168657323</v>
+        <v>0.1252071164073616</v>
       </c>
       <c r="J7" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K7" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009438863176050249</v>
+        <v>0.009296460680899954</v>
       </c>
       <c r="M7" t="n">
-        <v>7.169281553533216</v>
+        <v>7.159256255629775</v>
       </c>
       <c r="N7" t="n">
-        <v>85.64741183351708</v>
+        <v>85.33179188373857</v>
       </c>
       <c r="O7" t="n">
-        <v>9.254588690672161</v>
+        <v>9.237520873250494</v>
       </c>
       <c r="P7" t="n">
-        <v>355.5297471820348</v>
+        <v>355.5473103466973</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29539,28 +29709,28 @@
         <v>0.036</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01026042823412094</v>
+        <v>-0.01221102377005633</v>
       </c>
       <c r="J8" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K8" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L8" t="n">
-        <v>7.484099854038195e-05</v>
+        <v>0.0001075162476278368</v>
       </c>
       <c r="M8" t="n">
-        <v>6.306691850162155</v>
+        <v>6.279271203452181</v>
       </c>
       <c r="N8" t="n">
-        <v>71.46336643715033</v>
+        <v>71.06668919633105</v>
       </c>
       <c r="O8" t="n">
-        <v>8.453600797124876</v>
+        <v>8.430106120110889</v>
       </c>
       <c r="P8" t="n">
-        <v>356.2190105769981</v>
+        <v>356.2385754351423</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29617,28 +29787,28 @@
         <v>0.0403</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0615962728500101</v>
+        <v>0.05597616388981246</v>
       </c>
       <c r="J9" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K9" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002311593143569546</v>
+        <v>0.001935579287042244</v>
       </c>
       <c r="M9" t="n">
-        <v>6.571045730218185</v>
+        <v>6.554541983838818</v>
       </c>
       <c r="N9" t="n">
-        <v>82.70459265495882</v>
+        <v>82.33193327607002</v>
       </c>
       <c r="O9" t="n">
-        <v>9.09420654345165</v>
+        <v>9.073694576966432</v>
       </c>
       <c r="P9" t="n">
-        <v>369.0006138564104</v>
+        <v>369.0569423691595</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29695,28 +29865,28 @@
         <v>0.0361</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08070540331634503</v>
+        <v>0.0635189533525726</v>
       </c>
       <c r="J10" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K10" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003489429007725753</v>
+        <v>0.002173561495119269</v>
       </c>
       <c r="M10" t="n">
-        <v>7.265691187088238</v>
+        <v>7.294917951270051</v>
       </c>
       <c r="N10" t="n">
-        <v>93.96930998762302</v>
+        <v>94.41164277454092</v>
       </c>
       <c r="O10" t="n">
-        <v>9.693776869085806</v>
+        <v>9.716565379522793</v>
       </c>
       <c r="P10" t="n">
-        <v>364.9443728722672</v>
+        <v>365.1167699667987</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29773,28 +29943,28 @@
         <v>0.0255</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06841610820735906</v>
+        <v>0.05355890943119131</v>
       </c>
       <c r="J11" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K11" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002468496994865732</v>
+        <v>0.001518861491052292</v>
       </c>
       <c r="M11" t="n">
-        <v>7.611247299553566</v>
+        <v>7.62916313928416</v>
       </c>
       <c r="N11" t="n">
-        <v>96.15791692458278</v>
+        <v>96.72584170638743</v>
       </c>
       <c r="O11" t="n">
-        <v>9.806014324106547</v>
+        <v>9.834929674704718</v>
       </c>
       <c r="P11" t="n">
-        <v>355.3808415289899</v>
+        <v>355.5292753932594</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29851,28 +30021,28 @@
         <v>0.0306</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04352799779061326</v>
+        <v>0.03382495593512327</v>
       </c>
       <c r="J12" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K12" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001041188659713366</v>
+        <v>0.0006361993872973093</v>
       </c>
       <c r="M12" t="n">
-        <v>7.314678849078288</v>
+        <v>7.314300982986746</v>
       </c>
       <c r="N12" t="n">
-        <v>92.99276625787425</v>
+        <v>92.77071972375691</v>
       </c>
       <c r="O12" t="n">
-        <v>9.643275701641754</v>
+        <v>9.631755796517938</v>
       </c>
       <c r="P12" t="n">
-        <v>357.1367093117133</v>
+        <v>357.2331155833853</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29929,28 +30099,28 @@
         <v>0.0252</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.08216786013637578</v>
+        <v>-0.09728837163988831</v>
       </c>
       <c r="J13" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K13" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002315643424235403</v>
+        <v>0.003278187987483139</v>
       </c>
       <c r="M13" t="n">
-        <v>9.23471419640371</v>
+        <v>9.253953383114196</v>
       </c>
       <c r="N13" t="n">
-        <v>148.1184870541161</v>
+        <v>147.9386674367003</v>
       </c>
       <c r="O13" t="n">
-        <v>12.17039387423908</v>
+        <v>12.16300404656269</v>
       </c>
       <c r="P13" t="n">
-        <v>368.5886880730283</v>
+        <v>368.7391356957512</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30007,28 +30177,28 @@
         <v>0.031</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03143299667731785</v>
+        <v>0.02414215737120631</v>
       </c>
       <c r="J14" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K14" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003841584412852539</v>
+        <v>0.000229863490498361</v>
       </c>
       <c r="M14" t="n">
-        <v>8.282737087904083</v>
+        <v>8.267925405074559</v>
       </c>
       <c r="N14" t="n">
-        <v>130.3923113029045</v>
+        <v>129.8393645860161</v>
       </c>
       <c r="O14" t="n">
-        <v>11.4189452797929</v>
+        <v>11.39470774465129</v>
       </c>
       <c r="P14" t="n">
-        <v>366.8028947795226</v>
+        <v>366.8752176253398</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30085,28 +30255,28 @@
         <v>0.0206</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.08032437556055744</v>
+        <v>-0.0845805388287966</v>
       </c>
       <c r="J15" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K15" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00236210679756621</v>
+        <v>0.002660159544553675</v>
       </c>
       <c r="M15" t="n">
-        <v>9.383979583715279</v>
+        <v>9.343726673446398</v>
       </c>
       <c r="N15" t="n">
-        <v>137.831933238501</v>
+        <v>137.0154552420807</v>
       </c>
       <c r="O15" t="n">
-        <v>11.74018454874117</v>
+        <v>11.7053601073218</v>
       </c>
       <c r="P15" t="n">
-        <v>372.208801517917</v>
+        <v>372.2513014912101</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30163,28 +30333,28 @@
         <v>0.0227</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.07354270725795911</v>
+        <v>-0.07997330138791695</v>
       </c>
       <c r="J16" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K16" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001594801169454652</v>
+        <v>0.00191387050014391</v>
       </c>
       <c r="M16" t="n">
-        <v>10.58986432443016</v>
+        <v>10.55165708899859</v>
       </c>
       <c r="N16" t="n">
-        <v>173.7072474482586</v>
+        <v>172.7625798459495</v>
       </c>
       <c r="O16" t="n">
-        <v>13.17980452997155</v>
+        <v>13.14391797927656</v>
       </c>
       <c r="P16" t="n">
-        <v>379.3061177085774</v>
+        <v>379.3701501717891</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30241,28 +30411,28 @@
         <v>0.0266</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.06683024093756591</v>
+        <v>-0.07031331621734664</v>
       </c>
       <c r="J17" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K17" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001632455705431801</v>
+        <v>0.001832546196350648</v>
       </c>
       <c r="M17" t="n">
-        <v>9.26184344642544</v>
+        <v>9.238922211542555</v>
       </c>
       <c r="N17" t="n">
-        <v>139.682864472948</v>
+        <v>139.026670070342</v>
       </c>
       <c r="O17" t="n">
-        <v>11.81875054618499</v>
+        <v>11.79095713122315</v>
       </c>
       <c r="P17" t="n">
-        <v>375.9168409346117</v>
+        <v>375.9517179956538</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30319,28 +30489,28 @@
         <v>0.0255</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02888637705365348</v>
+        <v>0.02044987320329272</v>
       </c>
       <c r="J18" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K18" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003491036009232173</v>
+        <v>0.0001774089432691195</v>
       </c>
       <c r="M18" t="n">
-        <v>8.816619983636228</v>
+        <v>8.800495516390976</v>
       </c>
       <c r="N18" t="n">
-        <v>121.5547537689843</v>
+        <v>121.0399417308264</v>
       </c>
       <c r="O18" t="n">
-        <v>11.02518724416889</v>
+        <v>11.00181538341861</v>
       </c>
       <c r="P18" t="n">
-        <v>382.3640330710894</v>
+        <v>382.4485210660092</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30397,28 +30567,28 @@
         <v>0.0257</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0456416006007453</v>
+        <v>0.0411485320205917</v>
       </c>
       <c r="J19" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K19" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0007601393561764702</v>
+        <v>0.0006274697685093589</v>
       </c>
       <c r="M19" t="n">
-        <v>8.904233478142688</v>
+        <v>8.869794647904765</v>
       </c>
       <c r="N19" t="n">
-        <v>139.828881246741</v>
+        <v>139.01251859322</v>
       </c>
       <c r="O19" t="n">
-        <v>11.82492626813127</v>
+        <v>11.79035701720775</v>
       </c>
       <c r="P19" t="n">
-        <v>378.6368983297073</v>
+        <v>378.6816254517483</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30475,28 +30645,28 @@
         <v>0.0283</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05427122597975938</v>
+        <v>0.04510357651173434</v>
       </c>
       <c r="J20" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K20" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001011783926730958</v>
+        <v>0.0007085167208974452</v>
       </c>
       <c r="M20" t="n">
-        <v>9.485374455334201</v>
+        <v>9.467571443583397</v>
       </c>
       <c r="N20" t="n">
-        <v>147.583178137689</v>
+        <v>146.9478218127539</v>
       </c>
       <c r="O20" t="n">
-        <v>12.14838170859349</v>
+        <v>12.12220366982645</v>
       </c>
       <c r="P20" t="n">
-        <v>369.7393885046344</v>
+        <v>369.8317824909564</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30553,28 +30723,28 @@
         <v>0.0413</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1460097296077611</v>
+        <v>0.1415849049329506</v>
       </c>
       <c r="J21" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K21" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L21" t="n">
-        <v>0.009507424872305825</v>
+        <v>0.009079038753863289</v>
       </c>
       <c r="M21" t="n">
-        <v>8.26077511482714</v>
+        <v>8.227032197116415</v>
       </c>
       <c r="N21" t="n">
-        <v>112.3775872106792</v>
+        <v>111.7579593920478</v>
       </c>
       <c r="O21" t="n">
-        <v>10.60082955294911</v>
+        <v>10.57156371555542</v>
       </c>
       <c r="P21" t="n">
-        <v>357.050563116833</v>
+        <v>357.0949817472913</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30631,28 +30801,28 @@
         <v>0.0405</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03995391412565102</v>
+        <v>0.0338348553395737</v>
       </c>
       <c r="J22" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K22" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0007208490190975247</v>
+        <v>0.0005247401724025602</v>
       </c>
       <c r="M22" t="n">
-        <v>8.149251539218454</v>
+        <v>8.124161047651098</v>
       </c>
       <c r="N22" t="n">
-        <v>112.2100956730071</v>
+        <v>111.6406104586274</v>
       </c>
       <c r="O22" t="n">
-        <v>10.59292668118717</v>
+        <v>10.5660120413819</v>
       </c>
       <c r="P22" t="n">
-        <v>360.521485751256</v>
+        <v>360.5829728999437</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30690,7 +30860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W345"/>
+  <dimension ref="A1:W347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57379,7 +57549,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>-39.19939029318218,177.91828566231572</t>
+          <t>-39.19939029318217,177.91828566231572</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -58211,7 +58381,7 @@
       </c>
       <c r="S245" t="inlineStr">
         <is>
-          <t>-39.20811095728331,177.91533638166092</t>
+          <t>-39.2081109572833,177.91533638166092</t>
         </is>
       </c>
       <c r="T245" t="inlineStr">
@@ -60767,7 +60937,7 @@
       </c>
       <c r="P268" t="inlineStr">
         <is>
-          <t>-39.20618324426558,177.91637430663164</t>
+          <t>-39.20618324426559,177.91637430663164</t>
         </is>
       </c>
       <c r="Q268" t="inlineStr">
@@ -69155,6 +69325,240 @@
         </is>
       </c>
     </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:32+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>-39.197009345681195,177.92017302115275</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>-39.19761369752325,177.91972393040265</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>-39.19824716505572,177.9193524210654</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>-39.19879856387132,177.91878056946507</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>-39.19941876174203,177.91836260157118</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>-39.20010637992583,177.91821558251203</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>-39.20077543459296,177.9179668379834</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>-39.20147590507654,177.91797393472933</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>-39.202153592753255,177.91771217922192</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>-39.202842220705115,177.9175935830772</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>-39.203483967609195,177.91725870161807</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>-39.20412811768807,177.9169204322105</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>-39.20478246093687,177.9166171014221</t>
+        </is>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>-39.20546308992071,177.91641758232154</t>
+        </is>
+      </c>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>-39.206135059003365,177.91618397170393</t>
+        </is>
+      </c>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>-39.20676019183073,177.91576365693973</t>
+        </is>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>-39.207437354445396,177.91555652934454</t>
+        </is>
+      </c>
+      <c r="S346" t="inlineStr">
+        <is>
+          <t>-39.20810265563164,177.91530085213589</t>
+        </is>
+      </c>
+      <c r="T346" t="inlineStr">
+        <is>
+          <t>-39.20873343282808,177.91489086421785</t>
+        </is>
+      </c>
+      <c r="U346" t="inlineStr">
+        <is>
+          <t>-39.20936280517517,177.91447487293408</t>
+        </is>
+      </c>
+      <c r="V346" t="inlineStr">
+        <is>
+          <t>-39.21003226915748,177.91422972064768</t>
+        </is>
+      </c>
+      <c r="W346" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>-39.197007224710575,177.92016740836524</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>-39.197581175741114,177.9196378670382</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>-39.19823996453647,177.91933366494766</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>-39.198824076839216,177.91884231217244</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>-39.19943598847606,177.91840915871916</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>-39.200082596881884,177.91809198145876</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>-39.200778377922106,177.91800073294448</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>-39.20147852770652,177.91800485279893</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>-39.20215476043284,177.91772609755424</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>-39.20281033684293,177.91741091773795</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>-39.20347335243675,177.91722136354946</t>
+        </is>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>-39.20413925728567,177.9169577650428</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>-39.204807309274244,177.91670570436162</t>
+        </is>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>-39.20545182836884,177.91637392506675</t>
+        </is>
+      </c>
+      <c r="P347" t="inlineStr">
+        <is>
+          <t>-39.20611778233671,177.91611572811718</t>
+        </is>
+      </c>
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>-39.20679285773614,177.9158940069798</t>
+        </is>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>-39.20745086085951,177.9156126117378</t>
+        </is>
+      </c>
+      <c r="S347" t="inlineStr">
+        <is>
+          <t>-39.20809750911911,177.91527882604774</t>
+        </is>
+      </c>
+      <c r="T347" t="inlineStr">
+        <is>
+          <t>-39.20872220865929,177.9148428270183</t>
+        </is>
+      </c>
+      <c r="U347" t="inlineStr">
+        <is>
+          <t>-39.20937571954071,177.91452891101193</t>
+        </is>
+      </c>
+      <c r="V347" t="inlineStr">
+        <is>
+          <t>-39.21001678201942,177.91416633634222</t>
+        </is>
+      </c>
+      <c r="W347" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0287/nzd0287.xlsx
+++ b/data/nzd0287/nzd0287.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W347"/>
+  <dimension ref="A1:W348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25549,6 +25549,81 @@
         </is>
       </c>
     </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:53:44+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>354.2866666666667</v>
+      </c>
+      <c r="C348" t="n">
+        <v>350.93</v>
+      </c>
+      <c r="D348" t="n">
+        <v>363.4266666666667</v>
+      </c>
+      <c r="E348" t="n">
+        <v>356.6066666666667</v>
+      </c>
+      <c r="F348" t="n">
+        <v>342.6214285714286</v>
+      </c>
+      <c r="G348" t="n">
+        <v>369.6914285714286</v>
+      </c>
+      <c r="H348" t="n">
+        <v>353.6614285714285</v>
+      </c>
+      <c r="I348" t="n">
+        <v>365.5714285714286</v>
+      </c>
+      <c r="J348" t="n">
+        <v>372.2714285714285</v>
+      </c>
+      <c r="K348" t="n">
+        <v>362.0700000000001</v>
+      </c>
+      <c r="L348" t="n">
+        <v>362.3366666666667</v>
+      </c>
+      <c r="M348" t="n">
+        <v>368.8</v>
+      </c>
+      <c r="N348" t="n">
+        <v>370.0966666666667</v>
+      </c>
+      <c r="O348" t="n">
+        <v>372.56</v>
+      </c>
+      <c r="P348" t="n">
+        <v>383.15</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>371.04</v>
+      </c>
+      <c r="R348" t="n">
+        <v>386.65</v>
+      </c>
+      <c r="S348" t="n">
+        <v>379.4500000000001</v>
+      </c>
+      <c r="T348" t="n">
+        <v>375.12</v>
+      </c>
+      <c r="U348" t="n">
+        <v>362.6314285714286</v>
+      </c>
+      <c r="V348" t="n">
+        <v>362.9014285714285</v>
+      </c>
+      <c r="W348" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25560,7 +25635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B350"/>
+  <dimension ref="A1:B351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29068,6 +29143,16 @@
       </c>
       <c r="B350" t="n">
         <v>-0.48</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -29241,28 +29326,28 @@
         <v>0.0305</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1220003807213409</v>
+        <v>-0.122563241995819</v>
       </c>
       <c r="J2" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K2" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008202700636937843</v>
+        <v>0.008338342725375258</v>
       </c>
       <c r="M2" t="n">
-        <v>7.112330491282677</v>
+        <v>7.093375020537809</v>
       </c>
       <c r="N2" t="n">
-        <v>91.23547715003195</v>
+        <v>90.96119086799249</v>
       </c>
       <c r="O2" t="n">
-        <v>9.551726396313493</v>
+        <v>9.537357646014565</v>
       </c>
       <c r="P2" t="n">
-        <v>358.2906749132649</v>
+        <v>358.2963868821969</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29319,28 +29404,28 @@
         <v>0.03</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.09695585269819149</v>
+        <v>-0.09686922432056669</v>
       </c>
       <c r="J3" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K3" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003971996203602113</v>
+        <v>0.003994001506625766</v>
       </c>
       <c r="M3" t="n">
-        <v>8.427675834611192</v>
+        <v>8.402958835337031</v>
       </c>
       <c r="N3" t="n">
-        <v>119.0371528917373</v>
+        <v>118.6818698055727</v>
       </c>
       <c r="O3" t="n">
-        <v>10.910414881742</v>
+        <v>10.89412088263999</v>
       </c>
       <c r="P3" t="n">
-        <v>353.3014477020987</v>
+        <v>353.3005694108793</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29397,28 +29482,28 @@
         <v>0.0306</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09872782019763508</v>
+        <v>0.1025628367033813</v>
       </c>
       <c r="J4" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K4" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004996338020194946</v>
+        <v>0.005423452653582794</v>
       </c>
       <c r="M4" t="n">
-        <v>7.749311699726182</v>
+        <v>7.745987042939189</v>
       </c>
       <c r="N4" t="n">
-        <v>98.65889981524231</v>
+        <v>98.46710582365421</v>
       </c>
       <c r="O4" t="n">
-        <v>9.932718651771141</v>
+        <v>9.923059297598408</v>
       </c>
       <c r="P4" t="n">
-        <v>354.9811471622227</v>
+        <v>354.9423688949843</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29475,28 +29560,28 @@
         <v>0.0306</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08678476933010956</v>
+        <v>0.0924364315038918</v>
       </c>
       <c r="J5" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K5" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003915551274839113</v>
+        <v>0.004461551641947281</v>
       </c>
       <c r="M5" t="n">
-        <v>7.729799864713553</v>
+        <v>7.734504728232548</v>
       </c>
       <c r="N5" t="n">
-        <v>97.76821846290721</v>
+        <v>97.70391671312852</v>
       </c>
       <c r="O5" t="n">
-        <v>9.887781270988311</v>
+        <v>9.884529159910882</v>
       </c>
       <c r="P5" t="n">
-        <v>345.5975627361677</v>
+        <v>345.5405475088934</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29553,28 +29638,28 @@
         <v>0.0356</v>
       </c>
       <c r="I6" t="n">
-        <v>0.160819984739472</v>
+        <v>0.1577467249670616</v>
       </c>
       <c r="J6" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K6" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01510155831431692</v>
+        <v>0.01462914476060406</v>
       </c>
       <c r="M6" t="n">
-        <v>6.929819115471548</v>
+        <v>6.924292567188539</v>
       </c>
       <c r="N6" t="n">
-        <v>86.87392491697467</v>
+        <v>86.68829814948073</v>
       </c>
       <c r="O6" t="n">
-        <v>9.320618269029939</v>
+        <v>9.310655087021575</v>
       </c>
       <c r="P6" t="n">
-        <v>343.3291375444066</v>
+        <v>343.3599163011415</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29631,28 +29716,28 @@
         <v>0.0358</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1252071164073616</v>
+        <v>0.1321676007920885</v>
       </c>
       <c r="J7" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K7" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009296460680899954</v>
+        <v>0.01037937876442285</v>
       </c>
       <c r="M7" t="n">
-        <v>7.159256255629775</v>
+        <v>7.171131172256894</v>
       </c>
       <c r="N7" t="n">
-        <v>85.33179188373857</v>
+        <v>85.42743799122032</v>
       </c>
       <c r="O7" t="n">
-        <v>9.237520873250494</v>
+        <v>9.242696467547786</v>
       </c>
       <c r="P7" t="n">
-        <v>355.5473103466973</v>
+        <v>355.4770948063102</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29709,28 +29794,28 @@
         <v>0.036</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01221102377005633</v>
+        <v>-0.01365860009025374</v>
       </c>
       <c r="J8" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K8" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001075162476278368</v>
+        <v>0.0001354573896982236</v>
       </c>
       <c r="M8" t="n">
-        <v>6.279271203452181</v>
+        <v>6.268206410072577</v>
       </c>
       <c r="N8" t="n">
-        <v>71.06668919633105</v>
+        <v>70.87199148025384</v>
       </c>
       <c r="O8" t="n">
-        <v>8.430106120110889</v>
+        <v>8.418550438184345</v>
       </c>
       <c r="P8" t="n">
-        <v>356.2385754351423</v>
+        <v>356.2531207571208</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29787,28 +29872,28 @@
         <v>0.0403</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05597616388981246</v>
+        <v>0.05277586681992712</v>
       </c>
       <c r="J9" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K9" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001935579287042244</v>
+        <v>0.001732100688328964</v>
       </c>
       <c r="M9" t="n">
-        <v>6.554541983838818</v>
+        <v>6.547923403971585</v>
       </c>
       <c r="N9" t="n">
-        <v>82.33193327607002</v>
+        <v>82.15954807550962</v>
       </c>
       <c r="O9" t="n">
-        <v>9.073694576966432</v>
+        <v>9.064190425819044</v>
       </c>
       <c r="P9" t="n">
-        <v>369.0569423691595</v>
+        <v>369.0890647090136</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29865,28 +29950,28 @@
         <v>0.0361</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0635189533525726</v>
+        <v>0.06711356899871257</v>
       </c>
       <c r="J10" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K10" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002173561495119269</v>
+        <v>0.00244147304072273</v>
       </c>
       <c r="M10" t="n">
-        <v>7.294917951270051</v>
+        <v>7.290221666096637</v>
       </c>
       <c r="N10" t="n">
-        <v>94.41164277454092</v>
+        <v>94.22022611544473</v>
       </c>
       <c r="O10" t="n">
-        <v>9.716565379522793</v>
+        <v>9.706710365280543</v>
       </c>
       <c r="P10" t="n">
-        <v>365.1167699667987</v>
+        <v>365.0806639477636</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29943,28 +30028,28 @@
         <v>0.0255</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05355890943119131</v>
+        <v>0.0569175109777391</v>
       </c>
       <c r="J11" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K11" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001518861491052292</v>
+        <v>0.001726243886106316</v>
       </c>
       <c r="M11" t="n">
-        <v>7.62916313928416</v>
+        <v>7.622341604443784</v>
       </c>
       <c r="N11" t="n">
-        <v>96.72584170638743</v>
+        <v>96.51569673777819</v>
       </c>
       <c r="O11" t="n">
-        <v>9.834929674704718</v>
+        <v>9.8242402626248</v>
       </c>
       <c r="P11" t="n">
-        <v>355.5292753932594</v>
+        <v>355.495686612149</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30021,28 +30106,28 @@
         <v>0.0306</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03382495593512327</v>
+        <v>0.03658830501177068</v>
       </c>
       <c r="J12" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K12" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0006361993872973093</v>
+        <v>0.0007494210651334265</v>
       </c>
       <c r="M12" t="n">
-        <v>7.314300982986746</v>
+        <v>7.305109683695676</v>
       </c>
       <c r="N12" t="n">
-        <v>92.77071972375691</v>
+        <v>92.54530605140904</v>
       </c>
       <c r="O12" t="n">
-        <v>9.631755796517938</v>
+        <v>9.620047091953815</v>
       </c>
       <c r="P12" t="n">
-        <v>357.2331155833853</v>
+        <v>357.2056259841447</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30099,28 +30184,28 @@
         <v>0.0252</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.09728837163988831</v>
+        <v>-0.09552080819819167</v>
       </c>
       <c r="J13" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K13" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003278187987483139</v>
+        <v>0.003184765244610199</v>
       </c>
       <c r="M13" t="n">
-        <v>9.253953383114196</v>
+        <v>9.23185441304113</v>
       </c>
       <c r="N13" t="n">
-        <v>147.9386674367003</v>
+        <v>147.4940462511557</v>
       </c>
       <c r="O13" t="n">
-        <v>12.16300404656269</v>
+        <v>12.14471268705669</v>
       </c>
       <c r="P13" t="n">
-        <v>368.7391356957512</v>
+        <v>368.7215239962331</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30177,28 +30262,28 @@
         <v>0.031</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02414215737120631</v>
+        <v>0.02595041060535195</v>
       </c>
       <c r="J14" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K14" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000229863490498361</v>
+        <v>0.0002676554825903343</v>
       </c>
       <c r="M14" t="n">
-        <v>8.267925405074559</v>
+        <v>8.248786993591198</v>
       </c>
       <c r="N14" t="n">
-        <v>129.8393645860161</v>
+        <v>129.4508336311874</v>
       </c>
       <c r="O14" t="n">
-        <v>11.39470774465129</v>
+        <v>11.37764622543641</v>
       </c>
       <c r="P14" t="n">
-        <v>366.8752176253398</v>
+        <v>366.8572506329324</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30255,28 +30340,28 @@
         <v>0.0206</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.0845805388287966</v>
+        <v>-0.08280284869673536</v>
       </c>
       <c r="J15" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K15" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002660159544553675</v>
+        <v>0.002570102943664554</v>
       </c>
       <c r="M15" t="n">
-        <v>9.343726673446398</v>
+        <v>9.320687788828604</v>
       </c>
       <c r="N15" t="n">
-        <v>137.0154552420807</v>
+        <v>136.5905485426104</v>
       </c>
       <c r="O15" t="n">
-        <v>11.7053601073218</v>
+        <v>11.68719592300097</v>
       </c>
       <c r="P15" t="n">
-        <v>372.2513014912101</v>
+        <v>372.2335322124081</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30333,28 +30418,28 @@
         <v>0.0227</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.07997330138791695</v>
+        <v>-0.07585661197815155</v>
       </c>
       <c r="J16" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K16" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00191387050014391</v>
+        <v>0.001734860042126085</v>
       </c>
       <c r="M16" t="n">
-        <v>10.55165708899859</v>
+        <v>10.53506676877047</v>
       </c>
       <c r="N16" t="n">
-        <v>172.7625798459495</v>
+        <v>172.3083978610827</v>
       </c>
       <c r="O16" t="n">
-        <v>13.14391797927656</v>
+        <v>13.12662934119352</v>
       </c>
       <c r="P16" t="n">
-        <v>379.3701501717891</v>
+        <v>379.3291155786551</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30411,28 +30496,28 @@
         <v>0.0266</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.07031331621734664</v>
+        <v>-0.07251157707937346</v>
       </c>
       <c r="J17" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K17" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001832546196350648</v>
+        <v>0.001963783854384116</v>
       </c>
       <c r="M17" t="n">
-        <v>9.238922211542555</v>
+        <v>9.21799428257197</v>
       </c>
       <c r="N17" t="n">
-        <v>139.026670070342</v>
+        <v>138.5977000144098</v>
       </c>
       <c r="O17" t="n">
-        <v>11.79095713122315</v>
+        <v>11.77275244003754</v>
       </c>
       <c r="P17" t="n">
-        <v>375.9517179956538</v>
+        <v>375.9737843232439</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30489,28 +30574,28 @@
         <v>0.0255</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02044987320329272</v>
+        <v>0.02300872652069624</v>
       </c>
       <c r="J18" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K18" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001774089432691195</v>
+        <v>0.0002262608901568708</v>
       </c>
       <c r="M18" t="n">
-        <v>8.800495516390976</v>
+        <v>8.783158733142006</v>
       </c>
       <c r="N18" t="n">
-        <v>121.0399417308264</v>
+        <v>120.6936569223493</v>
       </c>
       <c r="O18" t="n">
-        <v>11.00181538341861</v>
+        <v>10.986066489984</v>
       </c>
       <c r="P18" t="n">
-        <v>382.4485210660092</v>
+        <v>382.4228559346921</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30567,28 +30652,28 @@
         <v>0.0257</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0411485320205917</v>
+        <v>0.04094616221051012</v>
       </c>
       <c r="J19" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K19" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0006274697685093589</v>
+        <v>0.0006261759323682448</v>
       </c>
       <c r="M19" t="n">
-        <v>8.869794647904765</v>
+        <v>8.842715092504189</v>
       </c>
       <c r="N19" t="n">
-        <v>139.01251859322</v>
+        <v>138.5728765146028</v>
       </c>
       <c r="O19" t="n">
-        <v>11.79035701720775</v>
+        <v>11.771698115166</v>
       </c>
       <c r="P19" t="n">
-        <v>378.6816254517483</v>
+        <v>378.6836424002138</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30645,28 +30730,28 @@
         <v>0.0283</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04510357651173434</v>
+        <v>0.04792731520807956</v>
       </c>
       <c r="J20" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K20" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0007085167208974452</v>
+        <v>0.0008057815155324555</v>
       </c>
       <c r="M20" t="n">
-        <v>9.467571443583397</v>
+        <v>9.450048268937451</v>
       </c>
       <c r="N20" t="n">
-        <v>146.9478218127539</v>
+        <v>146.5347175377325</v>
       </c>
       <c r="O20" t="n">
-        <v>12.12220366982645</v>
+        <v>12.10515252021768</v>
       </c>
       <c r="P20" t="n">
-        <v>369.8317824909564</v>
+        <v>369.8032898586078</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30723,28 +30808,28 @@
         <v>0.0413</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1415849049329506</v>
+        <v>0.1428932522261951</v>
       </c>
       <c r="J21" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K21" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L21" t="n">
-        <v>0.009079038753863289</v>
+        <v>0.00931715177928405</v>
       </c>
       <c r="M21" t="n">
-        <v>8.227032197116415</v>
+        <v>8.206990219758</v>
       </c>
       <c r="N21" t="n">
-        <v>111.7579593920478</v>
+        <v>111.4120762001222</v>
       </c>
       <c r="O21" t="n">
-        <v>10.57156371555542</v>
+        <v>10.55519190730904</v>
       </c>
       <c r="P21" t="n">
-        <v>357.0949817472913</v>
+        <v>357.0818258407903</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30801,28 +30886,28 @@
         <v>0.0405</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0338348553395737</v>
+        <v>0.03486508438792122</v>
       </c>
       <c r="J22" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K22" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0005247401724025602</v>
+        <v>0.0005616082301198588</v>
       </c>
       <c r="M22" t="n">
-        <v>8.124161047651098</v>
+        <v>8.102008977213528</v>
       </c>
       <c r="N22" t="n">
-        <v>111.6406104586274</v>
+        <v>111.2801603080167</v>
       </c>
       <c r="O22" t="n">
-        <v>10.5660120413819</v>
+        <v>10.54894119369412</v>
       </c>
       <c r="P22" t="n">
-        <v>360.5829728999437</v>
+        <v>360.5726099309546</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30860,7 +30945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W347"/>
+  <dimension ref="A1:W348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69559,6 +69644,123 @@
         </is>
       </c>
     </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:53:44+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>-39.19702673239225,177.9202190321636</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>-39.197628308736235,177.9197625965762</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>-39.19829262240168,177.91947082993624</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>-39.198876564562575,177.91896933559462</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>-39.1994157775379,177.9183545364382</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>-39.200120900065095,177.91829104441123</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>-39.20077612982361,177.91797484415022</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>-39.20147651618906,177.9179811390989</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>-39.20217184581437,177.91792975167647</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>-39.202858241249196,177.9176853668242</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>-39.203513982146,177.91736427578584</t>
+        </is>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>-39.20417634625836,177.9170820640304</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>-39.204818305529884,177.91674491435128</t>
+        </is>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>-39.205472682032884,177.91645476778208</t>
+        </is>
+      </c>
+      <c r="P348" t="inlineStr">
+        <is>
+          <t>-39.20615497858586,177.91626265516783</t>
+        </is>
+      </c>
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>-39.20677455382165,177.9158209669441</t>
+        </is>
+      </c>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>-39.20746949860069,177.91569000105574</t>
+        </is>
+      </c>
+      <c r="S348" t="inlineStr">
+        <is>
+          <t>-39.20810751765955,177.91532166070417</t>
+        </is>
+      </c>
+      <c r="T348" t="inlineStr">
+        <is>
+          <t>-39.20875528627658,177.91498439290544</t>
+        </is>
+      </c>
+      <c r="U348" t="inlineStr">
+        <is>
+          <t>-39.20938238792938,177.914556813858</t>
+        </is>
+      </c>
+      <c r="V348" t="inlineStr">
+        <is>
+          <t>-39.21003961629845,177.91425979039764</t>
+        </is>
+      </c>
+      <c r="W348" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0287/nzd0287.xlsx
+++ b/data/nzd0287/nzd0287.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W348"/>
+  <dimension ref="A1:W349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25624,6 +25624,81 @@
         </is>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:53:50+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>330.2066666666667</v>
+      </c>
+      <c r="C349" t="n">
+        <v>330.24</v>
+      </c>
+      <c r="D349" t="n">
+        <v>349.8566666666667</v>
+      </c>
+      <c r="E349" t="n">
+        <v>333.8066666666667</v>
+      </c>
+      <c r="F349" t="n">
+        <v>343.5242857142857</v>
+      </c>
+      <c r="G349" t="n">
+        <v>354.4442857142857</v>
+      </c>
+      <c r="H349" t="n">
+        <v>349.6142857142857</v>
+      </c>
+      <c r="I349" t="n">
+        <v>361.8342857142857</v>
+      </c>
+      <c r="J349" t="n">
+        <v>360.6442857142857</v>
+      </c>
+      <c r="K349" t="n">
+        <v>346.83</v>
+      </c>
+      <c r="L349" t="n">
+        <v>345.0566666666667</v>
+      </c>
+      <c r="M349" t="n">
+        <v>353.41</v>
+      </c>
+      <c r="N349" t="n">
+        <v>354.5566666666667</v>
+      </c>
+      <c r="O349" t="n">
+        <v>360.45</v>
+      </c>
+      <c r="P349" t="n">
+        <v>373.21</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>364.19</v>
+      </c>
+      <c r="R349" t="n">
+        <v>371.77</v>
+      </c>
+      <c r="S349" t="n">
+        <v>370.7000000000001</v>
+      </c>
+      <c r="T349" t="n">
+        <v>358.47</v>
+      </c>
+      <c r="U349" t="n">
+        <v>353.0742857142857</v>
+      </c>
+      <c r="V349" t="n">
+        <v>354.6842857142857</v>
+      </c>
+      <c r="W349" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25635,7 +25710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B351"/>
+  <dimension ref="A1:B352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29153,6 +29228,16 @@
       </c>
       <c r="B351" t="n">
         <v>0.44</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>
@@ -29326,28 +29411,28 @@
         <v>0.0305</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.122563241995819</v>
+        <v>-0.1388913328900228</v>
       </c>
       <c r="J2" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K2" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008338342725375258</v>
+        <v>0.01054669206508552</v>
       </c>
       <c r="M2" t="n">
-        <v>7.093375020537809</v>
+        <v>7.146749910712017</v>
       </c>
       <c r="N2" t="n">
-        <v>90.96119086799249</v>
+        <v>92.5431374672382</v>
       </c>
       <c r="O2" t="n">
-        <v>9.537357646014565</v>
+        <v>9.619934379570278</v>
       </c>
       <c r="P2" t="n">
-        <v>358.2963868821969</v>
+        <v>358.462381352005</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29404,28 +29489,28 @@
         <v>0.03</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.09686922432056669</v>
+        <v>-0.1102448485438212</v>
       </c>
       <c r="J3" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K3" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003994001506625766</v>
+        <v>0.005150777365308001</v>
       </c>
       <c r="M3" t="n">
-        <v>8.402958835337031</v>
+        <v>8.432216022047321</v>
       </c>
       <c r="N3" t="n">
-        <v>118.6818698055727</v>
+        <v>119.5732384281315</v>
       </c>
       <c r="O3" t="n">
-        <v>10.89412088263999</v>
+        <v>10.93495488916765</v>
       </c>
       <c r="P3" t="n">
-        <v>353.3005694108793</v>
+        <v>353.4364187283409</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29482,28 +29567,28 @@
         <v>0.0306</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1025628367033813</v>
+        <v>0.09756084174252885</v>
       </c>
       <c r="J4" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K4" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005423452653582794</v>
+        <v>0.004936572694973274</v>
       </c>
       <c r="M4" t="n">
-        <v>7.745987042939189</v>
+        <v>7.742936991897416</v>
       </c>
       <c r="N4" t="n">
-        <v>98.46710582365421</v>
+        <v>98.35047323473589</v>
       </c>
       <c r="O4" t="n">
-        <v>9.923059297598408</v>
+        <v>9.917180709996964</v>
       </c>
       <c r="P4" t="n">
-        <v>354.9423688949843</v>
+        <v>354.9930372723348</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29560,28 +29645,28 @@
         <v>0.0306</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0924364315038918</v>
+        <v>0.08338827399334885</v>
       </c>
       <c r="J5" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K5" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004461551641947281</v>
+        <v>0.003638241458018054</v>
       </c>
       <c r="M5" t="n">
-        <v>7.734504728232548</v>
+        <v>7.750630172590399</v>
       </c>
       <c r="N5" t="n">
-        <v>97.70391671312852</v>
+        <v>97.99917138470666</v>
       </c>
       <c r="O5" t="n">
-        <v>9.884529159910882</v>
+        <v>9.899453085130848</v>
       </c>
       <c r="P5" t="n">
-        <v>345.5405475088934</v>
+        <v>345.6319906138125</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29638,28 +29723,28 @@
         <v>0.0356</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1577467249670616</v>
+        <v>0.1552857058905857</v>
       </c>
       <c r="J6" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K6" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01462914476060406</v>
+        <v>0.0142748046402067</v>
       </c>
       <c r="M6" t="n">
-        <v>6.924292567188539</v>
+        <v>6.916035177105222</v>
       </c>
       <c r="N6" t="n">
-        <v>86.68829814948073</v>
+        <v>86.47982855603514</v>
       </c>
       <c r="O6" t="n">
-        <v>9.310655087021575</v>
+        <v>9.299453132095195</v>
       </c>
       <c r="P6" t="n">
-        <v>343.3599163011415</v>
+        <v>343.3846078593431</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29716,28 +29801,28 @@
         <v>0.0358</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1321676007920885</v>
+        <v>0.1293450381668252</v>
       </c>
       <c r="J7" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K7" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01037937876442285</v>
+        <v>0.01000868030671986</v>
       </c>
       <c r="M7" t="n">
-        <v>7.171131172256894</v>
+        <v>7.162610942675751</v>
       </c>
       <c r="N7" t="n">
-        <v>85.42743799122032</v>
+        <v>85.23445093016768</v>
       </c>
       <c r="O7" t="n">
-        <v>9.242696467547786</v>
+        <v>9.232250588570897</v>
       </c>
       <c r="P7" t="n">
-        <v>355.4770948063102</v>
+        <v>355.5056191159186</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29794,28 +29879,28 @@
         <v>0.036</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01365860009025374</v>
+        <v>-0.01765656631768069</v>
       </c>
       <c r="J8" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K8" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001354573896982236</v>
+        <v>0.0002275957372733783</v>
       </c>
       <c r="M8" t="n">
-        <v>6.268206410072577</v>
+        <v>6.270450180576833</v>
       </c>
       <c r="N8" t="n">
-        <v>70.87199148025384</v>
+        <v>70.77857607514193</v>
       </c>
       <c r="O8" t="n">
-        <v>8.418550438184345</v>
+        <v>8.413000420488634</v>
       </c>
       <c r="P8" t="n">
-        <v>356.2531207571208</v>
+        <v>356.2933645366207</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29872,28 +29957,28 @@
         <v>0.0403</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05277586681992712</v>
+        <v>0.04721684103006543</v>
       </c>
       <c r="J9" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K9" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001732100688328964</v>
+        <v>0.001393359881665446</v>
       </c>
       <c r="M9" t="n">
-        <v>6.547923403971585</v>
+        <v>6.550855233755653</v>
       </c>
       <c r="N9" t="n">
-        <v>82.15954807550962</v>
+        <v>82.13413858813817</v>
       </c>
       <c r="O9" t="n">
-        <v>9.064190425819044</v>
+        <v>9.062788676127132</v>
       </c>
       <c r="P9" t="n">
-        <v>369.0890647090136</v>
+        <v>369.1449608028399</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29950,28 +30035,28 @@
         <v>0.0361</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06711356899871257</v>
+        <v>0.06311563624741381</v>
       </c>
       <c r="J10" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K10" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00244147304072273</v>
+        <v>0.002173117399709379</v>
       </c>
       <c r="M10" t="n">
-        <v>7.290221666096637</v>
+        <v>7.286050768084809</v>
       </c>
       <c r="N10" t="n">
-        <v>94.22022611544473</v>
+        <v>94.0525362515279</v>
       </c>
       <c r="O10" t="n">
-        <v>9.706710365280543</v>
+        <v>9.698068686678184</v>
       </c>
       <c r="P10" t="n">
-        <v>365.0806639477636</v>
+        <v>365.1208921050476</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30028,28 +30113,28 @@
         <v>0.0255</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0569175109777391</v>
+        <v>0.05035800369812697</v>
       </c>
       <c r="J11" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K11" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001726243886106316</v>
+        <v>0.001357455182318668</v>
       </c>
       <c r="M11" t="n">
-        <v>7.622341604443784</v>
+        <v>7.628427664208578</v>
       </c>
       <c r="N11" t="n">
-        <v>96.51569673777819</v>
+        <v>96.53119998139849</v>
       </c>
       <c r="O11" t="n">
-        <v>9.8242402626248</v>
+        <v>9.825029261096299</v>
       </c>
       <c r="P11" t="n">
-        <v>355.495686612149</v>
+        <v>355.5614038345673</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30106,28 +30191,28 @@
         <v>0.0306</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03658830501177068</v>
+        <v>0.02808898135800309</v>
       </c>
       <c r="J12" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K12" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0007494210651334265</v>
+        <v>0.0004426542388249466</v>
       </c>
       <c r="M12" t="n">
-        <v>7.305109683695676</v>
+        <v>7.322055573614138</v>
       </c>
       <c r="N12" t="n">
-        <v>92.54530605140904</v>
+        <v>92.77636666021859</v>
       </c>
       <c r="O12" t="n">
-        <v>9.620047091953815</v>
+        <v>9.632048933649505</v>
       </c>
       <c r="P12" t="n">
-        <v>357.2056259841447</v>
+        <v>357.2903278118019</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30184,28 +30269,28 @@
         <v>0.0252</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.09552080819819167</v>
+        <v>-0.1042795873562232</v>
       </c>
       <c r="J13" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K13" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003184765244610199</v>
+        <v>0.003809502720104385</v>
       </c>
       <c r="M13" t="n">
-        <v>9.23185441304113</v>
+        <v>9.248108935488366</v>
       </c>
       <c r="N13" t="n">
-        <v>147.4940462511557</v>
+        <v>147.5429554605754</v>
       </c>
       <c r="O13" t="n">
-        <v>12.14471268705669</v>
+        <v>12.14672612108198</v>
       </c>
       <c r="P13" t="n">
-        <v>368.7215239962331</v>
+        <v>368.8089500628803</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30262,28 +30347,28 @@
         <v>0.031</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02595041060535195</v>
+        <v>0.0169866702782607</v>
       </c>
       <c r="J14" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K14" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002676554825903343</v>
+        <v>0.0001151455350311137</v>
       </c>
       <c r="M14" t="n">
-        <v>8.248786993591198</v>
+        <v>8.269633761084835</v>
       </c>
       <c r="N14" t="n">
-        <v>129.4508336311874</v>
+        <v>129.5670840795488</v>
       </c>
       <c r="O14" t="n">
-        <v>11.37764622543641</v>
+        <v>11.38275380035731</v>
       </c>
       <c r="P14" t="n">
-        <v>366.8572506329324</v>
+        <v>366.9464714195269</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30340,28 +30425,28 @@
         <v>0.0206</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.08280284869673536</v>
+        <v>-0.0896276988373684</v>
       </c>
       <c r="J15" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K15" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002570102943664554</v>
+        <v>0.003027547046937751</v>
       </c>
       <c r="M15" t="n">
-        <v>9.320687788828604</v>
+        <v>9.324435703508282</v>
       </c>
       <c r="N15" t="n">
-        <v>136.5905485426104</v>
+        <v>136.4459779834959</v>
       </c>
       <c r="O15" t="n">
-        <v>11.68719592300097</v>
+        <v>11.68100928787816</v>
       </c>
       <c r="P15" t="n">
-        <v>372.2335322124081</v>
+        <v>372.3018717097733</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30418,28 +30503,28 @@
         <v>0.0227</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.07585661197815155</v>
+        <v>-0.07876314906611276</v>
       </c>
       <c r="J16" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K16" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001734860042126085</v>
+        <v>0.001884302017920336</v>
       </c>
       <c r="M16" t="n">
-        <v>10.53506676877047</v>
+        <v>10.51498719063532</v>
       </c>
       <c r="N16" t="n">
-        <v>172.3083978610827</v>
+        <v>171.8027941936633</v>
       </c>
       <c r="O16" t="n">
-        <v>13.12662934119352</v>
+        <v>13.10735649143882</v>
       </c>
       <c r="P16" t="n">
-        <v>379.3291155786551</v>
+        <v>379.358140009899</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30496,28 +30581,28 @@
         <v>0.0266</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.07251157707937346</v>
+        <v>-0.07949568056188684</v>
       </c>
       <c r="J17" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K17" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001963783854384116</v>
+        <v>0.002372540845855697</v>
       </c>
       <c r="M17" t="n">
-        <v>9.21799428257197</v>
+        <v>9.218054278572705</v>
       </c>
       <c r="N17" t="n">
-        <v>138.5977000144098</v>
+        <v>138.4606666203968</v>
       </c>
       <c r="O17" t="n">
-        <v>11.77275244003754</v>
+        <v>11.76693106210777</v>
       </c>
       <c r="P17" t="n">
-        <v>375.9737843232439</v>
+        <v>376.0440191242917</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30574,28 +30659,28 @@
         <v>0.0255</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02300872652069624</v>
+        <v>0.01522881042701878</v>
       </c>
       <c r="J18" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K18" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002262608901568708</v>
+        <v>9.957488365064382e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>8.783158733142006</v>
+        <v>8.793231210795881</v>
       </c>
       <c r="N18" t="n">
-        <v>120.6936569223493</v>
+        <v>120.7078881555543</v>
       </c>
       <c r="O18" t="n">
-        <v>10.986066489984</v>
+        <v>10.98671416555261</v>
       </c>
       <c r="P18" t="n">
-        <v>382.4228559346921</v>
+        <v>382.5010281756647</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30652,28 +30737,28 @@
         <v>0.0257</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04094616221051012</v>
+        <v>0.03476990328269419</v>
       </c>
       <c r="J19" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K19" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0006261759323682448</v>
+        <v>0.0004542709039737636</v>
       </c>
       <c r="M19" t="n">
-        <v>8.842715092504189</v>
+        <v>8.844801210593365</v>
       </c>
       <c r="N19" t="n">
-        <v>138.5728765146028</v>
+        <v>138.3908966847254</v>
       </c>
       <c r="O19" t="n">
-        <v>11.771698115166</v>
+        <v>11.7639660270134</v>
       </c>
       <c r="P19" t="n">
-        <v>378.6836424002138</v>
+        <v>378.7453091542353</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30730,28 +30815,28 @@
         <v>0.0283</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04792731520807956</v>
+        <v>0.03937603904786369</v>
       </c>
       <c r="J20" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K20" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0008057815155324555</v>
+        <v>0.000546339100940596</v>
       </c>
       <c r="M20" t="n">
-        <v>9.450048268937451</v>
+        <v>9.461337407151227</v>
       </c>
       <c r="N20" t="n">
-        <v>146.5347175377325</v>
+        <v>146.5658954596352</v>
       </c>
       <c r="O20" t="n">
-        <v>12.10515252021768</v>
+        <v>12.10644024722524</v>
       </c>
       <c r="P20" t="n">
-        <v>369.8032898586078</v>
+        <v>369.8897314650437</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30808,28 +30893,28 @@
         <v>0.0413</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1428932522261951</v>
+        <v>0.1375703655110815</v>
       </c>
       <c r="J21" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K21" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00931715177928405</v>
+        <v>0.008694249939581566</v>
       </c>
       <c r="M21" t="n">
-        <v>8.206990219758</v>
+        <v>8.204564983237416</v>
       </c>
       <c r="N21" t="n">
-        <v>111.4120762001222</v>
+        <v>111.2442056894995</v>
       </c>
       <c r="O21" t="n">
-        <v>10.55519190730904</v>
+        <v>10.54723687462738</v>
       </c>
       <c r="P21" t="n">
-        <v>357.0818258407903</v>
+        <v>357.1354448113466</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30886,28 +30971,28 @@
         <v>0.0405</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03486508438792122</v>
+        <v>0.03005833649037334</v>
       </c>
       <c r="J22" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K22" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0005616082301198588</v>
+        <v>0.0004202560661838994</v>
       </c>
       <c r="M22" t="n">
-        <v>8.102008977213528</v>
+        <v>8.098298878095299</v>
       </c>
       <c r="N22" t="n">
-        <v>111.2801603080167</v>
+        <v>111.0647868744671</v>
       </c>
       <c r="O22" t="n">
-        <v>10.54894119369412</v>
+        <v>10.53872795333797</v>
       </c>
       <c r="P22" t="n">
-        <v>360.5726099309546</v>
+        <v>360.6210472782024</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30945,7 +31030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W348"/>
+  <dimension ref="A1:W349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69761,6 +69846,123 @@
         </is>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:53:50+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>-39.196932152635384,177.91996874360896</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>-39.19754704350662,177.91954754216226</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>-39.19823863847363,177.9193302107827</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>-39.19878041660902,177.9187366522263</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>-39.19941926370607,177.91836395818325</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>-39.20008798993731,177.9181200092293</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>-39.200772093773935,177.91792836572822</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>-39.20147287456426,177.9179382082781</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>-39.202160638737425,177.917796165201</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>-39.20282824695038,177.9175135260289</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>-39.20346065947159,177.91717671707386</t>
+        </is>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>-39.20412679767712,177.91691600837848</t>
+        </is>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>-39.20477092599923,177.91657597083338</t>
+        </is>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>-39.20543841634726,177.916321931267</t>
+        </is>
+      </c>
+      <c r="P349" t="inlineStr">
+        <is>
+          <t>-39.206127324848644,177.91615342143115</t>
+        </is>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>-39.206755670967546,177.91574561694262</t>
+        </is>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>-39.207429936540485,177.9155257281957</t>
+        </is>
+      </c>
+      <c r="S349" t="inlineStr">
+        <is>
+          <t>-39.208084888506995,177.91522481233605</t>
+        </is>
+      </c>
+      <c r="T349" t="inlineStr">
+        <is>
+          <t>-39.208712225855656,177.91480010270004</t>
+        </is>
+      </c>
+      <c r="U349" t="inlineStr">
+        <is>
+          <t>-39.2093571551319,177.91445123128054</t>
+        </is>
+      </c>
+      <c r="V349" t="inlineStr">
+        <is>
+          <t>-39.210017478633524,177.9141691873753</t>
+        </is>
+      </c>
+      <c r="W349" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0287/nzd0287.xlsx
+++ b/data/nzd0287/nzd0287.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W349"/>
+  <dimension ref="A1:W351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25699,6 +25699,156 @@
         </is>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-12 21:54:07+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>354.17</v>
+      </c>
+      <c r="C350" t="n">
+        <v>348.58</v>
+      </c>
+      <c r="D350" t="n">
+        <v>359.98</v>
+      </c>
+      <c r="E350" t="n">
+        <v>347.28</v>
+      </c>
+      <c r="F350" t="n">
+        <v>350.8514285714285</v>
+      </c>
+      <c r="G350" t="n">
+        <v>361.3014285714286</v>
+      </c>
+      <c r="H350" t="n">
+        <v>356.0614285714286</v>
+      </c>
+      <c r="I350" t="n">
+        <v>363.8714285714286</v>
+      </c>
+      <c r="J350" t="n">
+        <v>360.1214285714286</v>
+      </c>
+      <c r="K350" t="n">
+        <v>359.65</v>
+      </c>
+      <c r="L350" t="n">
+        <v>360.74</v>
+      </c>
+      <c r="M350" t="n">
+        <v>366.02</v>
+      </c>
+      <c r="N350" t="n">
+        <v>359.89</v>
+      </c>
+      <c r="O350" t="n">
+        <v>368.38</v>
+      </c>
+      <c r="P350" t="n">
+        <v>384.09</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>368.18</v>
+      </c>
+      <c r="R350" t="n">
+        <v>385.09</v>
+      </c>
+      <c r="S350" t="n">
+        <v>382.1</v>
+      </c>
+      <c r="T350" t="n">
+        <v>377.04</v>
+      </c>
+      <c r="U350" t="n">
+        <v>357.5514285714286</v>
+      </c>
+      <c r="V350" t="n">
+        <v>362.3214285714286</v>
+      </c>
+      <c r="W350" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:54:11+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>353.13</v>
+      </c>
+      <c r="C351" t="n">
+        <v>352.58</v>
+      </c>
+      <c r="D351" t="n">
+        <v>355.16</v>
+      </c>
+      <c r="E351" t="n">
+        <v>353.14</v>
+      </c>
+      <c r="F351" t="n">
+        <v>341.1057142857143</v>
+      </c>
+      <c r="G351" t="n">
+        <v>360.3557142857143</v>
+      </c>
+      <c r="H351" t="n">
+        <v>355.2357142857143</v>
+      </c>
+      <c r="I351" t="n">
+        <v>365.1057142857143</v>
+      </c>
+      <c r="J351" t="n">
+        <v>362.1857142857143</v>
+      </c>
+      <c r="K351" t="n">
+        <v>356.34</v>
+      </c>
+      <c r="L351" t="n">
+        <v>356.07</v>
+      </c>
+      <c r="M351" t="n">
+        <v>368</v>
+      </c>
+      <c r="N351" t="n">
+        <v>358.78</v>
+      </c>
+      <c r="O351" t="n">
+        <v>368.36</v>
+      </c>
+      <c r="P351" t="n">
+        <v>370.77</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>368.28</v>
+      </c>
+      <c r="R351" t="n">
+        <v>383.89</v>
+      </c>
+      <c r="S351" t="n">
+        <v>379.28</v>
+      </c>
+      <c r="T351" t="n">
+        <v>375.19</v>
+      </c>
+      <c r="U351" t="n">
+        <v>360.0357142857143</v>
+      </c>
+      <c r="V351" t="n">
+        <v>355.8757142857143</v>
+      </c>
+      <c r="W351" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25710,7 +25860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B352"/>
+  <dimension ref="A1:B354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29238,6 +29388,26 @@
       </c>
       <c r="B352" t="n">
         <v>-0.01</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2025-08-12 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -29411,28 +29581,28 @@
         <v>0.0305</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1388913328900228</v>
+        <v>-0.1404530605163657</v>
       </c>
       <c r="J2" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K2" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01054669206508552</v>
+        <v>0.0109391828601102</v>
       </c>
       <c r="M2" t="n">
-        <v>7.146749910712017</v>
+        <v>7.1108454995695</v>
       </c>
       <c r="N2" t="n">
-        <v>92.5431374672382</v>
+        <v>91.99741883417006</v>
       </c>
       <c r="O2" t="n">
-        <v>9.619934379570278</v>
+        <v>9.591528493111516</v>
       </c>
       <c r="P2" t="n">
-        <v>358.462381352005</v>
+        <v>358.4783485957487</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29489,28 +29659,28 @@
         <v>0.03</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1102448485438212</v>
+        <v>-0.1102271605109288</v>
       </c>
       <c r="J3" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K3" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005150777365308001</v>
+        <v>0.005223653022253139</v>
       </c>
       <c r="M3" t="n">
-        <v>8.432216022047321</v>
+        <v>8.394176766500079</v>
       </c>
       <c r="N3" t="n">
-        <v>119.5732384281315</v>
+        <v>118.8894308469118</v>
       </c>
       <c r="O3" t="n">
-        <v>10.93495488916765</v>
+        <v>10.90364300804606</v>
       </c>
       <c r="P3" t="n">
-        <v>353.4364187283409</v>
+        <v>353.4362149692407</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29567,28 +29737,28 @@
         <v>0.0306</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09756084174252885</v>
+        <v>0.09760671360887156</v>
       </c>
       <c r="J4" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K4" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004936572694973274</v>
+        <v>0.005011445281480231</v>
       </c>
       <c r="M4" t="n">
-        <v>7.742936991897416</v>
+        <v>7.711419441630822</v>
       </c>
       <c r="N4" t="n">
-        <v>98.35047323473589</v>
+        <v>97.80295574535648</v>
       </c>
       <c r="O4" t="n">
-        <v>9.917180709996964</v>
+        <v>9.88953769118438</v>
       </c>
       <c r="P4" t="n">
-        <v>354.9930372723348</v>
+        <v>354.9925980608173</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29645,28 +29815,28 @@
         <v>0.0306</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08338827399334885</v>
+        <v>0.08645673989679729</v>
       </c>
       <c r="J5" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K5" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003638241458018054</v>
+        <v>0.003963033693905937</v>
       </c>
       <c r="M5" t="n">
-        <v>7.750630172590399</v>
+        <v>7.723055824887291</v>
       </c>
       <c r="N5" t="n">
-        <v>97.99917138470666</v>
+        <v>97.50661857883135</v>
       </c>
       <c r="O5" t="n">
-        <v>9.899453085130848</v>
+        <v>9.874543968145129</v>
       </c>
       <c r="P5" t="n">
-        <v>345.6319906138125</v>
+        <v>345.6007810123424</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29723,28 +29893,28 @@
         <v>0.0356</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1552857058905857</v>
+        <v>0.1534750037342011</v>
       </c>
       <c r="J6" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K6" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0142748046402067</v>
+        <v>0.01412113435732609</v>
       </c>
       <c r="M6" t="n">
-        <v>6.916035177105222</v>
+        <v>6.904578671972858</v>
       </c>
       <c r="N6" t="n">
-        <v>86.47982855603514</v>
+        <v>86.12817259982158</v>
       </c>
       <c r="O6" t="n">
-        <v>9.299453132095195</v>
+        <v>9.280526526001722</v>
       </c>
       <c r="P6" t="n">
-        <v>343.3846078593431</v>
+        <v>343.4029271961322</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29801,28 +29971,28 @@
         <v>0.0358</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1293450381668252</v>
+        <v>0.1318087982425308</v>
       </c>
       <c r="J7" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K7" t="n">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01000868030671986</v>
+        <v>0.01053449600186951</v>
       </c>
       <c r="M7" t="n">
-        <v>7.162610942675751</v>
+        <v>7.132524016859339</v>
       </c>
       <c r="N7" t="n">
-        <v>85.23445093016768</v>
+        <v>84.76073416359401</v>
       </c>
       <c r="O7" t="n">
-        <v>9.232250588570897</v>
+        <v>9.206559301041514</v>
       </c>
       <c r="P7" t="n">
-        <v>355.5056191159186</v>
+        <v>355.4805933217275</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29879,28 +30049,28 @@
         <v>0.036</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01765656631768069</v>
+        <v>-0.01789186165807879</v>
       </c>
       <c r="J8" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K8" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002275957372733783</v>
+        <v>0.0002370775051097063</v>
       </c>
       <c r="M8" t="n">
-        <v>6.270450180576833</v>
+        <v>6.236342083770754</v>
       </c>
       <c r="N8" t="n">
-        <v>70.77857607514193</v>
+        <v>70.36585889565785</v>
       </c>
       <c r="O8" t="n">
-        <v>8.413000420488634</v>
+        <v>8.388436022028054</v>
       </c>
       <c r="P8" t="n">
-        <v>356.2933645366207</v>
+        <v>356.295750377558</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29957,28 +30127,28 @@
         <v>0.0403</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04721684103006543</v>
+        <v>0.03969642538101791</v>
       </c>
       <c r="J9" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K9" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001393359881665446</v>
+        <v>0.0009973198596620048</v>
       </c>
       <c r="M9" t="n">
-        <v>6.550855233755653</v>
+        <v>6.542621480536315</v>
       </c>
       <c r="N9" t="n">
-        <v>82.13413858813817</v>
+        <v>81.85357181134283</v>
       </c>
       <c r="O9" t="n">
-        <v>9.062788676127132</v>
+        <v>9.0472963813143</v>
       </c>
       <c r="P9" t="n">
-        <v>369.1449608028399</v>
+        <v>369.2209693088618</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30035,28 +30205,28 @@
         <v>0.0361</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06311563624741381</v>
+        <v>0.05591800381418503</v>
       </c>
       <c r="J10" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K10" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002173117399709379</v>
+        <v>0.001728269552746742</v>
       </c>
       <c r="M10" t="n">
-        <v>7.286050768084809</v>
+        <v>7.274128501548159</v>
       </c>
       <c r="N10" t="n">
-        <v>94.0525362515279</v>
+        <v>93.68569992840453</v>
       </c>
       <c r="O10" t="n">
-        <v>9.698068686678184</v>
+        <v>9.679137354558232</v>
       </c>
       <c r="P10" t="n">
-        <v>365.1208921050476</v>
+        <v>365.1936862341225</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30113,28 +30283,28 @@
         <v>0.0255</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05035800369812697</v>
+        <v>0.05179579411745776</v>
       </c>
       <c r="J11" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K11" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001357455182318668</v>
+        <v>0.001456842411103332</v>
       </c>
       <c r="M11" t="n">
-        <v>7.628427664208578</v>
+        <v>7.593397991392007</v>
       </c>
       <c r="N11" t="n">
-        <v>96.53119998139849</v>
+        <v>95.98356648644348</v>
       </c>
       <c r="O11" t="n">
-        <v>9.825029261096299</v>
+        <v>9.79712031601345</v>
       </c>
       <c r="P11" t="n">
-        <v>355.5614038345673</v>
+        <v>355.5469417564723</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30191,28 +30361,28 @@
         <v>0.0306</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02808898135800309</v>
+        <v>0.02857759095016759</v>
       </c>
       <c r="J12" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K12" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004426542388249466</v>
+        <v>0.0004648400937281583</v>
       </c>
       <c r="M12" t="n">
-        <v>7.322055573614138</v>
+        <v>7.292364792607365</v>
       </c>
       <c r="N12" t="n">
-        <v>92.77636666021859</v>
+        <v>92.25745895980641</v>
       </c>
       <c r="O12" t="n">
-        <v>9.632048933649505</v>
+        <v>9.605074646238123</v>
       </c>
       <c r="P12" t="n">
-        <v>357.2903278118019</v>
+        <v>357.285459354336</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30269,28 +30439,28 @@
         <v>0.0252</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1042795873562232</v>
+        <v>-0.1030452411596515</v>
       </c>
       <c r="J13" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K13" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003809502720104385</v>
+        <v>0.003777951812661162</v>
       </c>
       <c r="M13" t="n">
-        <v>9.248108935488366</v>
+        <v>9.195982144136146</v>
       </c>
       <c r="N13" t="n">
-        <v>147.5429554605754</v>
+        <v>146.6348915806861</v>
       </c>
       <c r="O13" t="n">
-        <v>12.14672612108198</v>
+        <v>12.10928947464243</v>
       </c>
       <c r="P13" t="n">
-        <v>368.8089500628803</v>
+        <v>368.7965521907824</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30347,28 +30517,28 @@
         <v>0.031</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0169866702782607</v>
+        <v>0.005973085276338617</v>
       </c>
       <c r="J14" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K14" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001151455350311137</v>
+        <v>1.442150150743338e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>8.269633761084835</v>
+        <v>8.275295249754063</v>
       </c>
       <c r="N14" t="n">
-        <v>129.5670840795488</v>
+        <v>129.1556793073304</v>
       </c>
       <c r="O14" t="n">
-        <v>11.38275380035731</v>
+        <v>11.36466802451046</v>
       </c>
       <c r="P14" t="n">
-        <v>366.9464714195269</v>
+        <v>367.0566750685421</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30425,28 +30595,28 @@
         <v>0.0206</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.0896276988373684</v>
+        <v>-0.09187044934100853</v>
       </c>
       <c r="J15" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K15" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003027547046937751</v>
+        <v>0.003231575267216846</v>
       </c>
       <c r="M15" t="n">
-        <v>9.324435703508282</v>
+        <v>9.275419014690954</v>
       </c>
       <c r="N15" t="n">
-        <v>136.4459779834959</v>
+        <v>135.5846417400496</v>
       </c>
       <c r="O15" t="n">
-        <v>11.68100928787816</v>
+        <v>11.64408183327692</v>
       </c>
       <c r="P15" t="n">
-        <v>372.3018717097733</v>
+        <v>372.3244472808855</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30503,28 +30673,28 @@
         <v>0.0227</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.07876314906611276</v>
+        <v>-0.07861557144871105</v>
       </c>
       <c r="J16" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K16" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001884302017920336</v>
+        <v>0.001903968464481598</v>
       </c>
       <c r="M16" t="n">
-        <v>10.51498719063532</v>
+        <v>10.48998342803594</v>
       </c>
       <c r="N16" t="n">
-        <v>171.8027941936633</v>
+        <v>170.9778353754416</v>
       </c>
       <c r="O16" t="n">
-        <v>13.10735649143882</v>
+        <v>13.07584931755645</v>
       </c>
       <c r="P16" t="n">
-        <v>379.358140009899</v>
+        <v>379.3567420308704</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30581,28 +30751,28 @@
         <v>0.0266</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.07949568056188684</v>
+        <v>-0.08751186236477154</v>
       </c>
       <c r="J17" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K17" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002372540845855697</v>
+        <v>0.002914950446025966</v>
       </c>
       <c r="M17" t="n">
-        <v>9.218054278572705</v>
+        <v>9.193474816401602</v>
       </c>
       <c r="N17" t="n">
-        <v>138.4606666203968</v>
+        <v>137.7645409129502</v>
       </c>
       <c r="O17" t="n">
-        <v>11.76693106210777</v>
+        <v>11.73731404167709</v>
       </c>
       <c r="P17" t="n">
-        <v>376.0440191242917</v>
+        <v>376.1250702678035</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30659,28 +30829,28 @@
         <v>0.0255</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01522881042701878</v>
+        <v>0.01740829254231384</v>
       </c>
       <c r="J18" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K18" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L18" t="n">
-        <v>9.957488365064382e-05</v>
+        <v>0.0001321393623052725</v>
       </c>
       <c r="M18" t="n">
-        <v>8.793231210795881</v>
+        <v>8.746553844486602</v>
       </c>
       <c r="N18" t="n">
-        <v>120.7078881555543</v>
+        <v>119.9571564539537</v>
       </c>
       <c r="O18" t="n">
-        <v>10.98671416555261</v>
+        <v>10.95249544414211</v>
       </c>
       <c r="P18" t="n">
-        <v>382.5010281756647</v>
+        <v>382.479019006536</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30737,28 +30907,28 @@
         <v>0.0257</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03476990328269419</v>
+        <v>0.03617339167529322</v>
       </c>
       <c r="J19" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K19" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0004542709039737636</v>
+        <v>0.0004992869347726359</v>
       </c>
       <c r="M19" t="n">
-        <v>8.844801210593365</v>
+        <v>8.797869703349491</v>
       </c>
       <c r="N19" t="n">
-        <v>138.3908966847254</v>
+        <v>137.5423647979761</v>
       </c>
       <c r="O19" t="n">
-        <v>11.7639660270134</v>
+        <v>11.7278457014908</v>
       </c>
       <c r="P19" t="n">
-        <v>378.7453091542353</v>
+        <v>378.7312383998855</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30815,28 +30985,28 @@
         <v>0.0283</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03937603904786369</v>
+        <v>0.04638004505169908</v>
       </c>
       <c r="J20" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K20" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000546339100940596</v>
+        <v>0.000768556040624313</v>
       </c>
       <c r="M20" t="n">
-        <v>9.461337407151227</v>
+        <v>9.432676302891235</v>
       </c>
       <c r="N20" t="n">
-        <v>146.5658954596352</v>
+        <v>145.8160248070893</v>
       </c>
       <c r="O20" t="n">
-        <v>12.10644024722524</v>
+        <v>12.0754306261553</v>
       </c>
       <c r="P20" t="n">
-        <v>369.8897314650437</v>
+        <v>369.8185609269707</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30893,28 +31063,28 @@
         <v>0.0413</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1375703655110815</v>
+        <v>0.1349495754704594</v>
       </c>
       <c r="J21" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K21" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L21" t="n">
-        <v>0.008694249939581566</v>
+        <v>0.008496864548715344</v>
       </c>
       <c r="M21" t="n">
-        <v>8.204564983237416</v>
+        <v>8.164649718389224</v>
       </c>
       <c r="N21" t="n">
-        <v>111.2442056894995</v>
+        <v>110.5726371626386</v>
       </c>
       <c r="O21" t="n">
-        <v>10.54723687462738</v>
+        <v>10.51535245070933</v>
       </c>
       <c r="P21" t="n">
-        <v>357.1354448113466</v>
+        <v>357.1619697926564</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30971,28 +31141,28 @@
         <v>0.0405</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03005833649037334</v>
+        <v>0.02682253653272168</v>
       </c>
       <c r="J22" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K22" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0004202560661838994</v>
+        <v>0.0003397363062446201</v>
       </c>
       <c r="M22" t="n">
-        <v>8.098298878095299</v>
+        <v>8.066984580663179</v>
       </c>
       <c r="N22" t="n">
-        <v>111.0647868744671</v>
+        <v>110.4427414503819</v>
       </c>
       <c r="O22" t="n">
-        <v>10.53872795333797</v>
+        <v>10.50917415643979</v>
       </c>
       <c r="P22" t="n">
-        <v>360.6210472782024</v>
+        <v>360.6538697196485</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -31030,7 +31200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W349"/>
+  <dimension ref="A1:W351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69963,6 +70133,240 @@
         </is>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-12 21:54:07+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>-39.19702627415842,177.92021781952374</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>-39.19761907853611,177.91973817036265</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>-39.198278910952304,177.91943511382647</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>-39.19883723392604,177.9188741530563</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>-39.199447555695386,177.91844042044724</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>-39.20010279073934,177.91819692937307</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>-39.20077852323626,177.91800240636468</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>-39.20147485964156,177.91796161017012</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>-39.202160134766416,177.91779015799557</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>-39.20285347839261,177.91765807976066</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>-39.203509055160836,177.91734694540793</t>
+        </is>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>-39.20416739598105,177.91705206825685</t>
+        </is>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>-39.20478718669981,177.91663395228355</t>
+        </is>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>-39.205460854588935,177.91640891668456</t>
+        </is>
+      </c>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>-39.2061575937224,177.91627298512276</t>
+        </is>
+      </c>
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>-39.20676666989176,177.91578950693912</t>
+        </is>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>-39.207465350976825,177.9156727788934</t>
+        </is>
+      </c>
+      <c r="S350" t="inlineStr">
+        <is>
+          <t>-39.20811437104329,177.91535099193504</t>
+        </is>
+      </c>
+      <c r="T350" t="inlineStr">
+        <is>
+          <t>-39.20876025178282,177.9150056444013</t>
+        </is>
+      </c>
+      <c r="U350" t="inlineStr">
+        <is>
+          <t>-39.209368975710596,177.9145006925275</t>
+        </is>
+      </c>
+      <c r="V350" t="inlineStr">
+        <is>
+          <t>-39.21003805373276,177.91425339525912</t>
+        </is>
+      </c>
+      <c r="W350" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:54:11+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>-39.19702218933036,177.92020700970613</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>-39.19763478951173,177.91977974689993</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>-39.19825973612015,177.9193851665614</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>-39.19886194560826,177.91893395679804</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>-39.19940992496574,177.91833871923842</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>-39.200100749465214,177.91818632080162</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>-39.200777699789086,177.91799292365027</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>-39.201476062378894,177.91797578915703</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>-39.20216212448619,177.91781387496812</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>-39.202846963896164,177.91762075737708</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>-39.203494644484884,177.91729625677874</t>
+        </is>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>-39.204173770639834,177.91707343215242</t>
+        </is>
+      </c>
+      <c r="N351" t="inlineStr">
+        <is>
+          <t>-39.20478380244403,177.9166218848922</t>
+        </is>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>-39.20546079799824,177.91640869730134</t>
+        </is>
+      </c>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>-39.206120536590745,177.91612660752756</t>
+        </is>
+      </c>
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>-39.20676694555379,177.9157906069392</t>
+        </is>
+      </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>-39.20746216049509,177.91565953107747</t>
+        </is>
+      </c>
+      <c r="S351" t="inlineStr">
+        <is>
+          <t>-39.20810707800825,177.9153197790782</t>
+        </is>
+      </c>
+      <c r="T351" t="inlineStr">
+        <is>
+          <t>-39.20875546731073,177.91498516769948</t>
+        </is>
+      </c>
+      <c r="U351" t="inlineStr">
+        <is>
+          <t>-39.209375534726675,177.9145281376865</t>
+        </is>
+      </c>
+      <c r="V351" t="inlineStr">
+        <is>
+          <t>-39.21002068844562,177.91418232418036</t>
+        </is>
+      </c>
+      <c r="W351" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0287/nzd0287.xlsx
+++ b/data/nzd0287/nzd0287.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W351"/>
+  <dimension ref="A1:W352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25849,6 +25849,81 @@
         </is>
       </c>
     </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:54:20+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>348.2833333333333</v>
+      </c>
+      <c r="C352" t="n">
+        <v>360.52</v>
+      </c>
+      <c r="D352" t="n">
+        <v>368.7833333333333</v>
+      </c>
+      <c r="E352" t="n">
+        <v>358.5333333333333</v>
+      </c>
+      <c r="F352" t="n">
+        <v>359.9142857142857</v>
+      </c>
+      <c r="G352" t="n">
+        <v>364.0442857142857</v>
+      </c>
+      <c r="H352" t="n">
+        <v>361.4142857142857</v>
+      </c>
+      <c r="I352" t="n">
+        <v>365.0742857142857</v>
+      </c>
+      <c r="J352" t="n">
+        <v>370.4642857142857</v>
+      </c>
+      <c r="K352" t="n">
+        <v>361.72</v>
+      </c>
+      <c r="L352" t="n">
+        <v>358.7333333333333</v>
+      </c>
+      <c r="M352" t="n">
+        <v>375.3200000000001</v>
+      </c>
+      <c r="N352" t="n">
+        <v>368.9233333333333</v>
+      </c>
+      <c r="O352" t="n">
+        <v>378.98</v>
+      </c>
+      <c r="P352" t="n">
+        <v>389.07</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>378.22</v>
+      </c>
+      <c r="R352" t="n">
+        <v>388.02</v>
+      </c>
+      <c r="S352" t="n">
+        <v>384.48</v>
+      </c>
+      <c r="T352" t="n">
+        <v>373.61</v>
+      </c>
+      <c r="U352" t="n">
+        <v>363.6442857142857</v>
+      </c>
+      <c r="V352" t="n">
+        <v>359.8842857142857</v>
+      </c>
+      <c r="W352" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25860,7 +25935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B354"/>
+  <dimension ref="A1:B355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29408,6 +29483,16 @@
       </c>
       <c r="B354" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
@@ -31200,7 +31285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W351"/>
+  <dimension ref="A1:W352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70367,6 +70452,123 @@
         </is>
       </c>
     </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:54:20+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>-39.19700315296984,177.92015663319995</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>-39.19766597575061,177.91986227637796</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>-39.198313932145155,177.91952633846165</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>-39.198884689322504,177.91898899804718</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>-39.1994825496502,177.91853499580517</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>-39.20010871104528,177.91822769743823</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>-39.20078386137724,177.9180638799509</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>-39.20147603175367,177.91797542811798</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>-39.20217010397032,177.91790898906365</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>-39.20285755240672,177.91768142034786</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>-39.20350286299604,177.91732516485263</t>
+        </is>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>-39.204197337523865,177.91715241385756</t>
+        </is>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>-39.20481472819133,177.91673215841996</t>
+        </is>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>-39.20549084759139,177.91652518982949</t>
+        </is>
+      </c>
+      <c r="P352" t="inlineStr">
+        <is>
+          <t>-39.20617144836578,177.91632771191655</t>
+        </is>
+      </c>
+      <c r="Q352" t="inlineStr">
+        <is>
+          <t>-39.20679434630536,177.91589994698418</t>
+        </is>
+      </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>-39.207473141063026,177.91570512564851</t>
+        </is>
+      </c>
+      <c r="S352" t="inlineStr">
+        <is>
+          <t>-39.208120526151106,177.91537733470514</t>
+        </is>
+      </c>
+      <c r="T352" t="inlineStr">
+        <is>
+          <t>-39.20875138110994,177.91496767949124</t>
+        </is>
+      </c>
+      <c r="U352" t="inlineStr">
+        <is>
+          <t>-39.209385062071966,177.91456800340563</t>
+        </is>
+      </c>
+      <c r="V352" t="inlineStr">
+        <is>
+          <t>-39.210031487873806,177.91422652307898</t>
+        </is>
+      </c>
+      <c r="W352" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0287/nzd0287.xlsx
+++ b/data/nzd0287/nzd0287.xlsx
@@ -29666,28 +29666,28 @@
         <v>0.0305</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1404530605163657</v>
+        <v>-0.144690070644889</v>
       </c>
       <c r="J2" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K2" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0109391828601102</v>
+        <v>0.01166992606218076</v>
       </c>
       <c r="M2" t="n">
-        <v>7.1108454995695</v>
+        <v>7.108363182569833</v>
       </c>
       <c r="N2" t="n">
-        <v>91.99741883417006</v>
+        <v>91.84825644743812</v>
       </c>
       <c r="O2" t="n">
-        <v>9.591528493111516</v>
+        <v>9.583749602709689</v>
       </c>
       <c r="P2" t="n">
-        <v>358.4783485957487</v>
+        <v>358.5218421205435</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29744,28 +29744,28 @@
         <v>0.03</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1102271605109288</v>
+        <v>-0.1038054405460195</v>
       </c>
       <c r="J3" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K3" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005223653022253139</v>
+        <v>0.004658030983101691</v>
       </c>
       <c r="M3" t="n">
-        <v>8.394176766500079</v>
+        <v>8.401596407026243</v>
       </c>
       <c r="N3" t="n">
-        <v>118.8894308469118</v>
+        <v>118.828457666672</v>
       </c>
       <c r="O3" t="n">
-        <v>10.90364300804606</v>
+        <v>10.90084664907603</v>
       </c>
       <c r="P3" t="n">
-        <v>353.4362149692407</v>
+        <v>353.3703651565253</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29822,28 +29822,28 @@
         <v>0.0306</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09760671360887156</v>
+        <v>0.1048065922328007</v>
       </c>
       <c r="J4" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K4" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005011445281480231</v>
+        <v>0.005793688136265573</v>
       </c>
       <c r="M4" t="n">
-        <v>7.711419441630822</v>
+        <v>7.725864395992772</v>
       </c>
       <c r="N4" t="n">
-        <v>97.80295574535648</v>
+        <v>97.88349651054681</v>
       </c>
       <c r="O4" t="n">
-        <v>9.88953769118438</v>
+        <v>9.893608871920641</v>
       </c>
       <c r="P4" t="n">
-        <v>354.9925980608173</v>
+        <v>354.9189571705444</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29900,28 +29900,28 @@
         <v>0.0306</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08645673989679729</v>
+        <v>0.09323372660256443</v>
       </c>
       <c r="J5" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K5" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003963033693905937</v>
+        <v>0.004623216507099071</v>
       </c>
       <c r="M5" t="n">
-        <v>7.723055824887291</v>
+        <v>7.733608931049203</v>
       </c>
       <c r="N5" t="n">
-        <v>97.50661857883135</v>
+        <v>97.55150259368087</v>
       </c>
       <c r="O5" t="n">
-        <v>9.874543968145129</v>
+        <v>9.876816419964525</v>
       </c>
       <c r="P5" t="n">
-        <v>345.6007810123424</v>
+        <v>345.5316223982632</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29978,28 +29978,28 @@
         <v>0.0356</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1534750037342011</v>
+        <v>0.1612652683953815</v>
       </c>
       <c r="J6" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K6" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01412113435732609</v>
+        <v>0.01559752711454543</v>
       </c>
       <c r="M6" t="n">
-        <v>6.904578671972858</v>
+        <v>6.919123786826151</v>
       </c>
       <c r="N6" t="n">
-        <v>86.12817259982158</v>
+        <v>86.32665759606979</v>
       </c>
       <c r="O6" t="n">
-        <v>9.280526526001722</v>
+        <v>9.291214000122363</v>
       </c>
       <c r="P6" t="n">
-        <v>343.4029271961322</v>
+        <v>343.3239986710099</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30056,28 +30056,28 @@
         <v>0.0358</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1318087982425308</v>
+        <v>0.1350285295763679</v>
       </c>
       <c r="J7" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K7" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01053449600186951</v>
+        <v>0.01111810523849677</v>
       </c>
       <c r="M7" t="n">
-        <v>7.132524016859339</v>
+        <v>7.126920723522122</v>
       </c>
       <c r="N7" t="n">
-        <v>84.76073416359401</v>
+        <v>84.58985058414478</v>
       </c>
       <c r="O7" t="n">
-        <v>9.206559301041514</v>
+        <v>9.197274084430928</v>
       </c>
       <c r="P7" t="n">
-        <v>355.4805933217275</v>
+        <v>355.4477370749935</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30134,28 +30134,28 @@
         <v>0.036</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01789186165807879</v>
+        <v>-0.01437070665576586</v>
       </c>
       <c r="J8" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K8" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002370775051097063</v>
+        <v>0.0001538628228744399</v>
       </c>
       <c r="M8" t="n">
-        <v>6.236342083770754</v>
+        <v>6.232352135282961</v>
       </c>
       <c r="N8" t="n">
-        <v>70.36585889565785</v>
+        <v>70.25075727803716</v>
       </c>
       <c r="O8" t="n">
-        <v>8.388436022028054</v>
+        <v>8.381572482418628</v>
       </c>
       <c r="P8" t="n">
-        <v>356.295750377558</v>
+        <v>356.259959499007</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30212,28 +30212,28 @@
         <v>0.0403</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03969642538101791</v>
+        <v>0.03638544575646773</v>
       </c>
       <c r="J9" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K9" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0009973198596620048</v>
+        <v>0.0008433700390191312</v>
       </c>
       <c r="M9" t="n">
-        <v>6.542621480536315</v>
+        <v>6.536819234986525</v>
       </c>
       <c r="N9" t="n">
-        <v>81.85357181134283</v>
+        <v>81.69198396877228</v>
       </c>
       <c r="O9" t="n">
-        <v>9.0472963813143</v>
+        <v>9.038361796740174</v>
       </c>
       <c r="P9" t="n">
-        <v>369.2209693088618</v>
+        <v>369.2545820850009</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30290,28 +30290,28 @@
         <v>0.0361</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05591800381418503</v>
+        <v>0.05836265887251151</v>
       </c>
       <c r="J10" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K10" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001728269552746742</v>
+        <v>0.001895379872216107</v>
       </c>
       <c r="M10" t="n">
-        <v>7.274128501548159</v>
+        <v>7.264481074699029</v>
       </c>
       <c r="N10" t="n">
-        <v>93.68569992840453</v>
+        <v>93.45242651145922</v>
       </c>
       <c r="O10" t="n">
-        <v>9.679137354558232</v>
+        <v>9.6670795233855</v>
       </c>
       <c r="P10" t="n">
-        <v>365.1936862341225</v>
+        <v>365.168849969849</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30368,28 +30368,28 @@
         <v>0.0255</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05179579411745776</v>
+        <v>0.05488486767568677</v>
       </c>
       <c r="J11" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K11" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001456842411103332</v>
+        <v>0.001646375869324479</v>
       </c>
       <c r="M11" t="n">
-        <v>7.593397991392007</v>
+        <v>7.585749023087163</v>
       </c>
       <c r="N11" t="n">
-        <v>95.98356648644348</v>
+        <v>95.76828055446978</v>
       </c>
       <c r="O11" t="n">
-        <v>9.79712031601345</v>
+        <v>9.786126943508846</v>
       </c>
       <c r="P11" t="n">
-        <v>355.5469417564723</v>
+        <v>355.5156927574096</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30446,28 +30446,28 @@
         <v>0.0306</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02857759095016759</v>
+        <v>0.02902854705351108</v>
       </c>
       <c r="J12" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K12" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004648400937281583</v>
+        <v>0.0004831685118266149</v>
       </c>
       <c r="M12" t="n">
-        <v>7.292364792607365</v>
+        <v>7.272780213268827</v>
       </c>
       <c r="N12" t="n">
-        <v>92.25745895980641</v>
+        <v>91.98514423859</v>
       </c>
       <c r="O12" t="n">
-        <v>9.605074646238123</v>
+        <v>9.590888605264373</v>
       </c>
       <c r="P12" t="n">
-        <v>357.285459354336</v>
+        <v>357.2809213743307</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30524,28 +30524,28 @@
         <v>0.0252</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1030452411596515</v>
+        <v>-0.09683218848990573</v>
       </c>
       <c r="J13" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K13" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003777951812661162</v>
+        <v>0.003357517017248512</v>
       </c>
       <c r="M13" t="n">
-        <v>9.195982144136146</v>
+        <v>9.192282611241749</v>
       </c>
       <c r="N13" t="n">
-        <v>146.6348915806861</v>
+        <v>146.4402984162988</v>
       </c>
       <c r="O13" t="n">
-        <v>12.10928947464243</v>
+        <v>12.10125193590724</v>
       </c>
       <c r="P13" t="n">
-        <v>368.7965521907824</v>
+        <v>368.7339338893785</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30602,28 +30602,28 @@
         <v>0.031</v>
       </c>
       <c r="I14" t="n">
-        <v>0.005973085276338617</v>
+        <v>0.007141000319237911</v>
       </c>
       <c r="J14" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K14" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L14" t="n">
-        <v>1.442150150743338e-05</v>
+        <v>2.077450595938668e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>8.275295249754063</v>
+        <v>8.25396528500035</v>
       </c>
       <c r="N14" t="n">
-        <v>129.1556793073304</v>
+        <v>128.7623421447766</v>
       </c>
       <c r="O14" t="n">
-        <v>11.36466802451046</v>
+        <v>11.34734956475637</v>
       </c>
       <c r="P14" t="n">
-        <v>367.0566750685421</v>
+        <v>367.0449387412972</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30680,28 +30680,28 @@
         <v>0.0206</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.09187044934100853</v>
+        <v>-0.08554182958990572</v>
       </c>
       <c r="J15" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K15" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003231575267216846</v>
+        <v>0.002820034805532168</v>
       </c>
       <c r="M15" t="n">
-        <v>9.275419014690954</v>
+        <v>9.27258655993124</v>
       </c>
       <c r="N15" t="n">
-        <v>135.5846417400496</v>
+        <v>135.4098845030609</v>
       </c>
       <c r="O15" t="n">
-        <v>11.64408183327692</v>
+        <v>11.63657529099782</v>
       </c>
       <c r="P15" t="n">
-        <v>372.3244472808855</v>
+        <v>372.260465540726</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30758,28 +30758,28 @@
         <v>0.0227</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.07861557144871105</v>
+        <v>-0.07048827017128137</v>
       </c>
       <c r="J16" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K16" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001903968464481598</v>
+        <v>0.001539364553073463</v>
       </c>
       <c r="M16" t="n">
-        <v>10.48998342803594</v>
+        <v>10.49181697289659</v>
       </c>
       <c r="N16" t="n">
-        <v>170.9778353754416</v>
+        <v>170.8679101187561</v>
       </c>
       <c r="O16" t="n">
-        <v>13.07584931755645</v>
+        <v>13.07164527206717</v>
       </c>
       <c r="P16" t="n">
-        <v>379.3567420308704</v>
+        <v>379.2747797012236</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30836,28 +30836,28 @@
         <v>0.0266</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.08751186236477154</v>
+        <v>-0.08446179103495213</v>
       </c>
       <c r="J17" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K17" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002914950446025966</v>
+        <v>0.002736085686924405</v>
       </c>
       <c r="M17" t="n">
-        <v>9.193474816401602</v>
+        <v>9.178126571176481</v>
       </c>
       <c r="N17" t="n">
-        <v>137.7645409129502</v>
+        <v>137.3763192225031</v>
       </c>
       <c r="O17" t="n">
-        <v>11.73731404167709</v>
+        <v>11.72076444701894</v>
       </c>
       <c r="P17" t="n">
-        <v>376.1250702678035</v>
+        <v>376.0940919037334</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30914,28 +30914,28 @@
         <v>0.0255</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01740829254231384</v>
+        <v>0.02088586320874425</v>
       </c>
       <c r="J18" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K18" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001321393623052725</v>
+        <v>0.0001915527643213677</v>
       </c>
       <c r="M18" t="n">
-        <v>8.746553844486602</v>
+        <v>8.733474937259805</v>
       </c>
       <c r="N18" t="n">
-        <v>119.9571564539537</v>
+        <v>119.657578084697</v>
       </c>
       <c r="O18" t="n">
-        <v>10.95249544414211</v>
+        <v>10.93881063391706</v>
       </c>
       <c r="P18" t="n">
-        <v>382.479019006536</v>
+        <v>382.4437333600329</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30992,28 +30992,28 @@
         <v>0.0257</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03617339167529322</v>
+        <v>0.03941733574269037</v>
       </c>
       <c r="J19" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K19" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0004992869347726359</v>
+        <v>0.0005970952515828021</v>
       </c>
       <c r="M19" t="n">
-        <v>8.797869703349491</v>
+        <v>8.784499626908863</v>
       </c>
       <c r="N19" t="n">
-        <v>137.5423647979761</v>
+        <v>137.1838946938607</v>
       </c>
       <c r="O19" t="n">
-        <v>11.7278457014908</v>
+        <v>11.71255286834859</v>
       </c>
       <c r="P19" t="n">
-        <v>378.7312383998855</v>
+        <v>378.6985324339278</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -31070,28 +31070,28 @@
         <v>0.0283</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04638004505169908</v>
+        <v>0.04811630306486544</v>
       </c>
       <c r="J20" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K20" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000768556040624313</v>
+        <v>0.0008333267393433319</v>
       </c>
       <c r="M20" t="n">
-        <v>9.432676302891235</v>
+        <v>9.41073801697001</v>
       </c>
       <c r="N20" t="n">
-        <v>145.8160248070893</v>
+        <v>145.3795731901087</v>
       </c>
       <c r="O20" t="n">
-        <v>12.0754306261553</v>
+        <v>12.05734519660562</v>
       </c>
       <c r="P20" t="n">
-        <v>369.8185609269707</v>
+        <v>369.8008365406867</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -31148,28 +31148,28 @@
         <v>0.0413</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1349495754704594</v>
+        <v>0.1369706838396006</v>
       </c>
       <c r="J21" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K21" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L21" t="n">
-        <v>0.008496864548715344</v>
+        <v>0.008816664292865428</v>
       </c>
       <c r="M21" t="n">
-        <v>8.164649718389224</v>
+        <v>8.14822857793529</v>
       </c>
       <c r="N21" t="n">
-        <v>110.5726371626386</v>
+        <v>110.2511479773226</v>
       </c>
       <c r="O21" t="n">
-        <v>10.51535245070933</v>
+        <v>10.50005466544449</v>
       </c>
       <c r="P21" t="n">
-        <v>357.1619697926564</v>
+        <v>357.1414121940168</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -31226,28 +31226,28 @@
         <v>0.0405</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02682253653272168</v>
+        <v>0.02579469391649912</v>
       </c>
       <c r="J22" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K22" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0003397363062446201</v>
+        <v>0.0003166933804915617</v>
       </c>
       <c r="M22" t="n">
-        <v>8.066984580663179</v>
+        <v>8.045650933905618</v>
       </c>
       <c r="N22" t="n">
-        <v>110.4427414503819</v>
+        <v>110.0910976448635</v>
       </c>
       <c r="O22" t="n">
-        <v>10.50917415643979</v>
+        <v>10.49243049273444</v>
       </c>
       <c r="P22" t="n">
-        <v>360.6538697196485</v>
+        <v>360.6643288745294</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">

--- a/data/nzd0287/nzd0287.xlsx
+++ b/data/nzd0287/nzd0287.xlsx
@@ -29657,13 +29657,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0291</v>
+        <v>0.0325</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0305</v>
+        <v>0.0356</v>
       </c>
       <c r="I2" t="n">
         <v>-0.1446912927846702</v>
@@ -29735,13 +29735,13 @@
         <v>0.0500555917350643</v>
       </c>
       <c r="F3" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0249</v>
+        <v>0.0297</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03</v>
+        <v>0.0311</v>
       </c>
       <c r="I3" t="n">
         <v>-0.1038054405460197</v>
@@ -29813,13 +29813,13 @@
         <v>0.1001111834705403</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0271</v>
+        <v>0.0334</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0306</v>
+        <v>0.0361</v>
       </c>
       <c r="I4" t="n">
         <v>0.1048111839211705</v>
@@ -29891,13 +29891,13 @@
         <v>0.1501520025531668</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0291</v>
+        <v>0.0347</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0306</v>
+        <v>0.0411</v>
       </c>
       <c r="I5" t="n">
         <v>0.09323980368520773</v>
@@ -29969,13 +29969,13 @@
         <v>0.2002075942878331</v>
       </c>
       <c r="F6" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0339</v>
+        <v>0.0393</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0356</v>
+        <v>0.0455</v>
       </c>
       <c r="I6" t="n">
         <v>0.161260750862989</v>
@@ -30047,13 +30047,13 @@
         <v>0.249363624057175</v>
       </c>
       <c r="F7" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0337</v>
+        <v>0.0434</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0358</v>
+        <v>0.0468</v>
       </c>
       <c r="I7" t="n">
         <v>0.1350261424435032</v>
@@ -30125,13 +30125,13 @@
         <v>0.2994192157915077</v>
       </c>
       <c r="F8" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0334</v>
+        <v>0.0391</v>
       </c>
       <c r="H8" t="n">
-        <v>0.036</v>
+        <v>0.0413</v>
       </c>
       <c r="I8" t="n">
         <v>-0.01437388822772887</v>
@@ -30203,13 +30203,13 @@
         <v>0.3494746449719928</v>
       </c>
       <c r="F9" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0344</v>
+        <v>0.0346</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0403</v>
+        <v>0.0415</v>
       </c>
       <c r="I9" t="n">
         <v>0.03638603704850093</v>
@@ -30281,13 +30281,13 @@
         <v>0.3995302367065594</v>
       </c>
       <c r="F10" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0332</v>
+        <v>0.0377</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0361</v>
+        <v>0.0444</v>
       </c>
       <c r="I10" t="n">
         <v>0.05836404827472244</v>
@@ -30359,13 +30359,13 @@
         <v>0.4495858284411261</v>
       </c>
       <c r="F11" t="n">
-        <v>0.025</v>
+        <v>0.04</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0249</v>
+        <v>0.037</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0255</v>
+        <v>0.043</v>
       </c>
       <c r="I11" t="n">
         <v>0.05488486767568683</v>
@@ -30437,13 +30437,13 @@
         <v>0.4994597898068635</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0294</v>
+        <v>0.0337</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0306</v>
+        <v>0.0355</v>
       </c>
       <c r="I12" t="n">
         <v>0.02903087461227221</v>
@@ -30518,10 +30518,10 @@
         <v>0.025</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02</v>
+        <v>0.0246</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0252</v>
+        <v>0.0256</v>
       </c>
       <c r="I13" t="n">
         <v>-0.09683218848990582</v>
@@ -30593,13 +30593,13 @@
         <v>0.5995709732765133</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="G14" t="n">
-        <v>0.025</v>
+        <v>0.0246</v>
       </c>
       <c r="H14" t="n">
-        <v>0.031</v>
+        <v>0.0262</v>
       </c>
       <c r="I14" t="n">
         <v>0.007149225218432823</v>
@@ -30671,13 +30671,13 @@
         <v>0.6496152703862808</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0199</v>
+        <v>0.0247</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0206</v>
+        <v>0.0255</v>
       </c>
       <c r="I15" t="n">
         <v>-0.08554182958990572</v>
@@ -30749,13 +30749,13 @@
         <v>0.6996708621207572</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02</v>
+        <v>0.0246</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0227</v>
+        <v>0.0261</v>
       </c>
       <c r="I16" t="n">
         <v>-0.07048827017128137</v>
@@ -30830,10 +30830,10 @@
         <v>0.025</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0247</v>
+        <v>0.0244</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0266</v>
+        <v>0.0269</v>
       </c>
       <c r="I17" t="n">
         <v>-0.08446179103495188</v>
@@ -30905,13 +30905,13 @@
         <v>0.7997795244405914</v>
       </c>
       <c r="F18" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0246</v>
+        <v>0.0298</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0255</v>
+        <v>0.0329</v>
       </c>
       <c r="I18" t="n">
         <v>0.02088586320874421</v>
@@ -30983,13 +30983,13 @@
         <v>0.849835116175342</v>
       </c>
       <c r="F19" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0242</v>
+        <v>0.0291</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0257</v>
+        <v>0.0332</v>
       </c>
       <c r="I19" t="n">
         <v>0.03941733574269004</v>
@@ -31061,13 +31061,13 @@
         <v>0.8998907079100926</v>
       </c>
       <c r="F20" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0248</v>
+        <v>0.0342</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0283</v>
+        <v>0.036</v>
       </c>
       <c r="I20" t="n">
         <v>0.04811630306486531</v>
@@ -31139,13 +31139,13 @@
         <v>0.9499462996452847</v>
       </c>
       <c r="F21" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0344</v>
+        <v>0.0427</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0413</v>
+        <v>0.0526</v>
       </c>
       <c r="I21" t="n">
         <v>0.1369640592316956</v>
@@ -31217,13 +31217,13 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0341</v>
+        <v>0.039</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0405</v>
+        <v>0.0488</v>
       </c>
       <c r="I22" t="n">
         <v>0.02578587342953519</v>
